--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_25_37.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_25_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1710372.724584399</v>
+        <v>1709778.85787316</v>
       </c>
     </row>
     <row r="7">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>131.6224207170395</v>
+        <v>83.69827355632196</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>29.38001397227812</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>104.6301972121008</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>32.23475461124627</v>
       </c>
       <c r="V11" t="n">
-        <v>113.5452377002287</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>131.6224207170395</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>131.6224207170394</v>
       </c>
     </row>
     <row r="12">
@@ -1506,10 +1506,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>6.04742266336001</v>
+        <v>6.047422663360152</v>
       </c>
       <c r="W12" t="n">
-        <v>18.8384664162337</v>
+        <v>18.83846641623384</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>9.884882276754226</v>
+        <v>9.884882276754368</v>
       </c>
       <c r="U13" t="n">
-        <v>64.24262914177281</v>
+        <v>64.24262914177295</v>
       </c>
       <c r="V13" t="n">
-        <v>38.06370773437226</v>
+        <v>38.0637077343724</v>
       </c>
       <c r="W13" t="n">
-        <v>63.23059380498552</v>
+        <v>63.23059380498566</v>
       </c>
       <c r="X13" t="n">
-        <v>8.875695800788634</v>
+        <v>8.875695800788776</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="C14" t="n">
-        <v>131.6224207170395</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="D14" t="n">
-        <v>115.9330281675683</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.387790467339719</v>
       </c>
       <c r="G14" t="n">
-        <v>131.6224207170395</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>113.5452377002288</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>131.6224207170395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>6.047422663360152</v>
+        <v>6.047422663360067</v>
       </c>
       <c r="W15" t="n">
-        <v>18.83846641623384</v>
+        <v>18.83846641623376</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>9.884882276754368</v>
+        <v>9.884882276754283</v>
       </c>
       <c r="U16" t="n">
-        <v>64.24262914177295</v>
+        <v>64.24262914177287</v>
       </c>
       <c r="V16" t="n">
-        <v>38.0637077343724</v>
+        <v>38.06370773437231</v>
       </c>
       <c r="W16" t="n">
-        <v>63.23059380498566</v>
+        <v>63.23059380498557</v>
       </c>
       <c r="X16" t="n">
-        <v>8.875695800788776</v>
+        <v>8.875695800788691</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>60.18608130266739</v>
+        <v>60.18608130266745</v>
       </c>
       <c r="C17" t="n">
-        <v>48.19739826034913</v>
+        <v>48.19739826034919</v>
       </c>
       <c r="D17" t="n">
-        <v>39.17870230487711</v>
+        <v>39.17870230487716</v>
       </c>
       <c r="E17" t="n">
-        <v>60.92083987478264</v>
+        <v>60.9208398747827</v>
       </c>
       <c r="F17" t="n">
-        <v>80.09265596275981</v>
+        <v>80.09265596275986</v>
       </c>
       <c r="G17" t="n">
-        <v>81.55736574630232</v>
+        <v>81.55736574630237</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.692458542846509</v>
+        <v>3.692458542846566</v>
       </c>
       <c r="W17" t="n">
-        <v>28.99255802080272</v>
+        <v>28.99255802080347</v>
       </c>
       <c r="X17" t="n">
-        <v>48.29281625355003</v>
+        <v>48.29281625355009</v>
       </c>
       <c r="Y17" t="n">
-        <v>59.68941404974879</v>
+        <v>59.68941404974885</v>
       </c>
     </row>
     <row r="18">
@@ -2093,7 +2093,7 @@
         <v>80.09265596275981</v>
       </c>
       <c r="G20" t="n">
-        <v>81.55736574630231</v>
+        <v>81.55736574630237</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>80.09265596275981</v>
       </c>
       <c r="G23" t="n">
-        <v>81.55736574630232</v>
+        <v>81.55736574630231</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>180.9748428097535</v>
+        <v>180.9748428097534</v>
       </c>
       <c r="C26" t="n">
-        <v>168.9861597674352</v>
+        <v>168.9861597674351</v>
       </c>
       <c r="D26" t="n">
-        <v>159.9674638119632</v>
+        <v>159.9674638119631</v>
       </c>
       <c r="E26" t="n">
         <v>181.7096013818687</v>
       </c>
       <c r="F26" t="n">
-        <v>200.8814174698459</v>
+        <v>200.8814174698458</v>
       </c>
       <c r="G26" t="n">
-        <v>202.3461272533884</v>
+        <v>202.3461272533883</v>
       </c>
       <c r="H26" t="n">
-        <v>115.5661795618047</v>
+        <v>115.5661795618046</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,22 +2606,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>10.93598234970374</v>
+        <v>10.93598234970365</v>
       </c>
       <c r="U26" t="n">
-        <v>43.17073696095003</v>
+        <v>43.17073696094995</v>
       </c>
       <c r="V26" t="n">
-        <v>124.4812200499326</v>
+        <v>124.4812200499325</v>
       </c>
       <c r="W26" t="n">
-        <v>149.7813195278895</v>
+        <v>149.7813195278894</v>
       </c>
       <c r="X26" t="n">
-        <v>169.0815777606361</v>
+        <v>169.081577760636</v>
       </c>
       <c r="Y26" t="n">
-        <v>180.4781755568349</v>
+        <v>180.4781755568348</v>
       </c>
     </row>
     <row r="27">
@@ -2688,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>7.16508969796091</v>
+        <v>7.165089697960825</v>
       </c>
       <c r="V27" t="n">
-        <v>16.9834050130639</v>
+        <v>16.98340501306382</v>
       </c>
       <c r="W27" t="n">
-        <v>29.77444876593759</v>
+        <v>29.77444876593751</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>20.82086462645812</v>
+        <v>20.82086462645803</v>
       </c>
       <c r="U28" t="n">
-        <v>75.1786114914767</v>
+        <v>75.17861149147662</v>
       </c>
       <c r="V28" t="n">
-        <v>48.99969008407615</v>
+        <v>48.99969008407606</v>
       </c>
       <c r="W28" t="n">
-        <v>74.16657615468941</v>
+        <v>74.16657615468932</v>
       </c>
       <c r="X28" t="n">
-        <v>19.81167815049253</v>
+        <v>19.81167815049244</v>
       </c>
       <c r="Y28" t="n">
-        <v>10.68654590656021</v>
+        <v>10.68654590656013</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2798,7 @@
         <v>159.9674638119631</v>
       </c>
       <c r="E29" t="n">
-        <v>181.7096013818686</v>
+        <v>181.7096013818687</v>
       </c>
       <c r="F29" t="n">
         <v>200.8814174698458</v>
@@ -2843,10 +2843,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>10.93598234970363</v>
+        <v>10.93598234970365</v>
       </c>
       <c r="U29" t="n">
-        <v>43.17073696094992</v>
+        <v>43.17073696094995</v>
       </c>
       <c r="V29" t="n">
         <v>124.4812200499325</v>
@@ -2925,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>7.165089697960797</v>
+        <v>7.165089697960825</v>
       </c>
       <c r="V30" t="n">
-        <v>16.98340501306379</v>
+        <v>16.98340501306382</v>
       </c>
       <c r="W30" t="n">
-        <v>29.77444876593748</v>
+        <v>29.77444876593751</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3001,22 +3001,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>20.820864626458</v>
+        <v>20.82086462645803</v>
       </c>
       <c r="U31" t="n">
-        <v>75.17861149147659</v>
+        <v>75.17861149147662</v>
       </c>
       <c r="V31" t="n">
-        <v>48.99969008407604</v>
+        <v>48.99969008407606</v>
       </c>
       <c r="W31" t="n">
-        <v>74.1665761546893</v>
+        <v>74.16657615468932</v>
       </c>
       <c r="X31" t="n">
-        <v>19.81167815049241</v>
+        <v>19.81167815049244</v>
       </c>
       <c r="Y31" t="n">
-        <v>10.6865459065601</v>
+        <v>10.68654590656013</v>
       </c>
     </row>
     <row r="32">
@@ -3026,22 +3026,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>180.9748428097535</v>
+        <v>180.9748428097534</v>
       </c>
       <c r="C32" t="n">
         <v>168.9861597674352</v>
       </c>
       <c r="D32" t="n">
-        <v>159.9674638119632</v>
+        <v>159.9674638119631</v>
       </c>
       <c r="E32" t="n">
         <v>181.7096013818687</v>
       </c>
       <c r="F32" t="n">
-        <v>200.8814174698459</v>
+        <v>200.8814174698458</v>
       </c>
       <c r="G32" t="n">
-        <v>202.3461272533884</v>
+        <v>202.3461272533883</v>
       </c>
       <c r="H32" t="n">
         <v>115.5661795618047</v>
@@ -3080,13 +3080,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>10.93598234970375</v>
+        <v>10.93598234970369</v>
       </c>
       <c r="U32" t="n">
-        <v>43.17073696095002</v>
+        <v>43.17073696094997</v>
       </c>
       <c r="V32" t="n">
-        <v>124.4812200499326</v>
+        <v>124.4812200499325</v>
       </c>
       <c r="W32" t="n">
         <v>149.7813195278895</v>
@@ -3095,7 +3095,7 @@
         <v>169.0815777606361</v>
       </c>
       <c r="Y32" t="n">
-        <v>180.4781755568349</v>
+        <v>180.4781755568348</v>
       </c>
     </row>
     <row r="33">
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>7.16508969796091</v>
+        <v>7.165089697960854</v>
       </c>
       <c r="V33" t="n">
-        <v>16.9834050130639</v>
+        <v>16.98340501306384</v>
       </c>
       <c r="W33" t="n">
-        <v>29.77444876593759</v>
+        <v>29.77444876593754</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3238,22 +3238,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>20.82086462645812</v>
+        <v>20.82086462645806</v>
       </c>
       <c r="U34" t="n">
-        <v>75.1786114914767</v>
+        <v>75.17861149147664</v>
       </c>
       <c r="V34" t="n">
-        <v>48.99969008407615</v>
+        <v>48.99969008407609</v>
       </c>
       <c r="W34" t="n">
-        <v>74.16657615468941</v>
+        <v>74.16657615468935</v>
       </c>
       <c r="X34" t="n">
-        <v>19.81167815049253</v>
+        <v>19.81167815049247</v>
       </c>
       <c r="Y34" t="n">
-        <v>10.68654590656021</v>
+        <v>10.68654590656016</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>139.3194838123383</v>
+        <v>139.3194838123382</v>
       </c>
       <c r="C35" t="n">
-        <v>127.33080077002</v>
+        <v>127.3308007700199</v>
       </c>
       <c r="D35" t="n">
-        <v>118.312104814548</v>
+        <v>118.3121048145479</v>
       </c>
       <c r="E35" t="n">
         <v>140.0542423844535</v>
       </c>
       <c r="F35" t="n">
-        <v>159.2260584724307</v>
+        <v>159.2260584724306</v>
       </c>
       <c r="G35" t="n">
-        <v>160.6907682559732</v>
+        <v>160.6907682559731</v>
       </c>
       <c r="H35" t="n">
-        <v>73.9108205643895</v>
+        <v>73.91082056438944</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.515377963534803</v>
+        <v>1.515377963534756</v>
       </c>
       <c r="V35" t="n">
-        <v>82.82586105251738</v>
+        <v>82.82586105251733</v>
       </c>
       <c r="W35" t="n">
-        <v>108.1259605304743</v>
+        <v>108.1259605304742</v>
       </c>
       <c r="X35" t="n">
-        <v>127.4262187632209</v>
+        <v>127.4262187632208</v>
       </c>
       <c r="Y35" t="n">
-        <v>138.8228165594197</v>
+        <v>138.8228165594196</v>
       </c>
     </row>
     <row r="36">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>33.52325249406148</v>
+        <v>33.52325249406142</v>
       </c>
       <c r="V37" t="n">
-        <v>7.344331086660929</v>
+        <v>7.344331086660873</v>
       </c>
       <c r="W37" t="n">
-        <v>32.51121715727419</v>
+        <v>32.51121715727413</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,22 +3503,22 @@
         <v>139.3194838123382</v>
       </c>
       <c r="C38" t="n">
-        <v>127.33080077002</v>
+        <v>127.3308007700199</v>
       </c>
       <c r="D38" t="n">
-        <v>118.312104814548</v>
+        <v>118.3121048145479</v>
       </c>
       <c r="E38" t="n">
         <v>140.0542423844535</v>
       </c>
       <c r="F38" t="n">
-        <v>159.2260584724307</v>
+        <v>159.2260584724306</v>
       </c>
       <c r="G38" t="n">
-        <v>160.6907682559732</v>
+        <v>160.6907682559731</v>
       </c>
       <c r="H38" t="n">
-        <v>73.91082056438947</v>
+        <v>73.91082056438944</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,16 +3557,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.515377963534785</v>
+        <v>1.515377963534756</v>
       </c>
       <c r="V38" t="n">
-        <v>82.82586105251735</v>
+        <v>82.82586105251733</v>
       </c>
       <c r="W38" t="n">
-        <v>108.1259605304743</v>
+        <v>108.1259605304742</v>
       </c>
       <c r="X38" t="n">
-        <v>127.4262187632209</v>
+        <v>127.4262187632208</v>
       </c>
       <c r="Y38" t="n">
         <v>138.8228165594196</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>33.52325249406145</v>
+        <v>33.52325249406142</v>
       </c>
       <c r="V40" t="n">
-        <v>7.344331086660901</v>
+        <v>7.344331086660873</v>
       </c>
       <c r="W40" t="n">
-        <v>32.51121715727416</v>
+        <v>32.51121715727413</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>139.3194838123382</v>
+        <v>139.3194838123381</v>
       </c>
       <c r="C41" t="n">
         <v>127.3308007700199</v>
@@ -3746,7 +3746,7 @@
         <v>118.3121048145479</v>
       </c>
       <c r="E41" t="n">
-        <v>140.0542423844535</v>
+        <v>140.0542423844534</v>
       </c>
       <c r="F41" t="n">
         <v>159.2260584724306</v>
@@ -3755,7 +3755,7 @@
         <v>160.6907682559731</v>
       </c>
       <c r="H41" t="n">
-        <v>73.91082056438944</v>
+        <v>73.91082056438938</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,10 +3794,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.515377963534756</v>
+        <v>1.5153779635347</v>
       </c>
       <c r="V41" t="n">
-        <v>82.82586105251733</v>
+        <v>82.82586105251727</v>
       </c>
       <c r="W41" t="n">
         <v>108.1259605304742</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>33.52325249406142</v>
+        <v>33.52325249406137</v>
       </c>
       <c r="V43" t="n">
-        <v>7.344331086660873</v>
+        <v>7.344331086660816</v>
       </c>
       <c r="W43" t="n">
-        <v>32.51121715727413</v>
+        <v>32.51121715727407</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3977,22 +3977,22 @@
         <v>139.3194838123382</v>
       </c>
       <c r="C44" t="n">
-        <v>127.3308007700199</v>
+        <v>127.33080077002</v>
       </c>
       <c r="D44" t="n">
-        <v>118.3121048145479</v>
+        <v>118.312104814548</v>
       </c>
       <c r="E44" t="n">
         <v>140.0542423844535</v>
       </c>
       <c r="F44" t="n">
-        <v>159.2260584724306</v>
+        <v>159.2260584724307</v>
       </c>
       <c r="G44" t="n">
-        <v>160.6907682559731</v>
+        <v>160.6907682559732</v>
       </c>
       <c r="H44" t="n">
-        <v>73.91082056439028</v>
+        <v>73.91082056438947</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,16 +4031,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>1.515377963534746</v>
+        <v>1.515377963534785</v>
       </c>
       <c r="V44" t="n">
-        <v>82.82586105251733</v>
+        <v>82.82586105251735</v>
       </c>
       <c r="W44" t="n">
-        <v>108.1259605304742</v>
+        <v>108.1259605304743</v>
       </c>
       <c r="X44" t="n">
-        <v>127.4262187632208</v>
+        <v>127.4262187632209</v>
       </c>
       <c r="Y44" t="n">
         <v>138.8228165594196</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>33.52325249406142</v>
+        <v>33.52325249406145</v>
       </c>
       <c r="V46" t="n">
-        <v>7.344331086660873</v>
+        <v>7.344331086660901</v>
       </c>
       <c r="W46" t="n">
-        <v>32.51121715727413</v>
+        <v>32.51121715727416</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>145.893643338554</v>
+        <v>143.4817337755848</v>
       </c>
       <c r="C11" t="n">
-        <v>145.893643338554</v>
+        <v>143.4817337755848</v>
       </c>
       <c r="D11" t="n">
-        <v>145.893643338554</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="E11" t="n">
-        <v>145.893643338554</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="F11" t="n">
-        <v>145.893643338554</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="G11" t="n">
-        <v>116.2168615483741</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="H11" t="n">
         <v>10.52979365736316</v>
       </c>
       <c r="I11" t="n">
-        <v>10.52979365736316</v>
+        <v>76.89870416677088</v>
       </c>
       <c r="J11" t="n">
-        <v>122.1351968056154</v>
+        <v>188.504107315023</v>
       </c>
       <c r="K11" t="n">
-        <v>122.1351968056154</v>
+        <v>188.504107315023</v>
       </c>
       <c r="L11" t="n">
-        <v>122.1351968056154</v>
+        <v>227.8435400355893</v>
       </c>
       <c r="M11" t="n">
-        <v>236.166004544284</v>
+        <v>227.8435400355893</v>
       </c>
       <c r="N11" t="n">
-        <v>236.166004544284</v>
+        <v>227.8435400355893</v>
       </c>
       <c r="O11" t="n">
-        <v>347.1016601590264</v>
+        <v>338.7791956503316</v>
       </c>
       <c r="P11" t="n">
-        <v>407.9679878302223</v>
+        <v>437.3502059646996</v>
       </c>
       <c r="Q11" t="n">
-        <v>407.9679878302223</v>
+        <v>526.4896828681577</v>
       </c>
       <c r="R11" t="n">
-        <v>481.5587050619462</v>
+        <v>526.4896828681577</v>
       </c>
       <c r="S11" t="n">
-        <v>526.4896828681578</v>
+        <v>526.4896828681577</v>
       </c>
       <c r="T11" t="n">
-        <v>526.4896828681578</v>
+        <v>526.4896828681577</v>
       </c>
       <c r="U11" t="n">
-        <v>526.4896828681578</v>
+        <v>493.9293246749796</v>
       </c>
       <c r="V11" t="n">
-        <v>411.7975235749974</v>
+        <v>493.9293246749796</v>
       </c>
       <c r="W11" t="n">
-        <v>278.8455834567757</v>
+        <v>360.977384556758</v>
       </c>
       <c r="X11" t="n">
-        <v>278.8455834567757</v>
+        <v>360.977384556758</v>
       </c>
       <c r="Y11" t="n">
-        <v>278.8455834567757</v>
+        <v>228.0254444385363</v>
       </c>
     </row>
     <row r="12">
@@ -5121,40 +5121,40 @@
         <v>10.52979365736316</v>
       </c>
       <c r="K12" t="n">
-        <v>35.66705535392246</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="L12" t="n">
-        <v>35.66705535392246</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="M12" t="n">
-        <v>35.66705535392246</v>
+        <v>35.66705535392275</v>
       </c>
       <c r="N12" t="n">
-        <v>35.66705535392246</v>
+        <v>35.66705535392275</v>
       </c>
       <c r="O12" t="n">
-        <v>35.66705535392246</v>
+        <v>35.66705535392275</v>
       </c>
       <c r="P12" t="n">
-        <v>35.66705535392246</v>
+        <v>35.66705535392275</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.66705535392246</v>
+        <v>35.66705535392275</v>
       </c>
       <c r="R12" t="n">
-        <v>35.66705535392246</v>
+        <v>35.66705535392275</v>
       </c>
       <c r="S12" t="n">
-        <v>35.66705535392246</v>
+        <v>35.66705535392275</v>
       </c>
       <c r="T12" t="n">
-        <v>35.66705535392246</v>
+        <v>35.66705535392275</v>
       </c>
       <c r="U12" t="n">
-        <v>35.66705535392246</v>
+        <v>35.66705535392275</v>
       </c>
       <c r="V12" t="n">
-        <v>29.55854761315478</v>
+        <v>29.55854761315491</v>
       </c>
       <c r="W12" t="n">
         <v>10.52979365736316</v>
@@ -5182,61 +5182,61 @@
         <v>10.52979365736316</v>
       </c>
       <c r="E13" t="n">
-        <v>66.38269690372991</v>
+        <v>79.40936002819308</v>
       </c>
       <c r="F13" t="n">
-        <v>66.38269690372991</v>
+        <v>79.40936002819308</v>
       </c>
       <c r="G13" t="n">
-        <v>66.38269690372991</v>
+        <v>79.40936002819308</v>
       </c>
       <c r="H13" t="n">
-        <v>66.38269690372991</v>
+        <v>79.40936002819308</v>
       </c>
       <c r="I13" t="n">
-        <v>66.38269690372991</v>
+        <v>79.40936002819308</v>
       </c>
       <c r="J13" t="n">
-        <v>66.38269690372991</v>
+        <v>79.40936002819308</v>
       </c>
       <c r="K13" t="n">
-        <v>66.38269690372991</v>
+        <v>79.40936002819308</v>
       </c>
       <c r="L13" t="n">
-        <v>66.38269690372991</v>
+        <v>79.40936002819308</v>
       </c>
       <c r="M13" t="n">
-        <v>66.38269690372991</v>
+        <v>196.6888934135997</v>
       </c>
       <c r="N13" t="n">
-        <v>196.688893413599</v>
+        <v>196.6888934135997</v>
       </c>
       <c r="O13" t="n">
-        <v>196.688893413599</v>
+        <v>196.6888934135997</v>
       </c>
       <c r="P13" t="n">
-        <v>196.688893413599</v>
+        <v>196.6888934135997</v>
       </c>
       <c r="Q13" t="n">
-        <v>196.688893413599</v>
+        <v>196.6888934135997</v>
       </c>
       <c r="R13" t="n">
-        <v>196.688893413599</v>
+        <v>196.6888934135997</v>
       </c>
       <c r="S13" t="n">
-        <v>196.688893413599</v>
+        <v>196.6888934135997</v>
       </c>
       <c r="T13" t="n">
-        <v>186.70416384112</v>
+        <v>186.7041638411205</v>
       </c>
       <c r="U13" t="n">
-        <v>121.8126192534706</v>
+        <v>121.8126192534711</v>
       </c>
       <c r="V13" t="n">
-        <v>83.36442962279159</v>
+        <v>83.36442962279187</v>
       </c>
       <c r="W13" t="n">
-        <v>19.49514295108905</v>
+        <v>19.49514295108919</v>
       </c>
       <c r="X13" t="n">
         <v>10.52979365736316</v>
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>393.5377427499361</v>
+        <v>278.8455834567759</v>
       </c>
       <c r="C14" t="n">
-        <v>260.5858026317144</v>
+        <v>145.8936433385542</v>
       </c>
       <c r="D14" t="n">
-        <v>143.4817337755849</v>
+        <v>12.94170322033257</v>
       </c>
       <c r="E14" t="n">
-        <v>143.4817337755849</v>
+        <v>12.94170322033257</v>
       </c>
       <c r="F14" t="n">
-        <v>143.4817337755849</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="G14" t="n">
         <v>10.52979365736316</v>
@@ -5276,52 +5276,52 @@
         <v>10.52979365736316</v>
       </c>
       <c r="J14" t="n">
-        <v>122.1351968056153</v>
+        <v>122.1351968056154</v>
       </c>
       <c r="K14" t="n">
-        <v>122.1351968056153</v>
+        <v>122.1351968056154</v>
       </c>
       <c r="L14" t="n">
-        <v>223.5567527008513</v>
+        <v>212.3837426112885</v>
       </c>
       <c r="M14" t="n">
-        <v>223.5567527008513</v>
+        <v>326.4145503499571</v>
       </c>
       <c r="N14" t="n">
-        <v>223.5567527008513</v>
+        <v>326.4145503499571</v>
       </c>
       <c r="O14" t="n">
-        <v>293.8482178441202</v>
+        <v>437.3502059646995</v>
       </c>
       <c r="P14" t="n">
-        <v>392.4192281584882</v>
+        <v>437.3502059646995</v>
       </c>
       <c r="Q14" t="n">
-        <v>481.5587050619463</v>
+        <v>526.4896828681577</v>
       </c>
       <c r="R14" t="n">
-        <v>481.5587050619463</v>
+        <v>526.4896828681577</v>
       </c>
       <c r="S14" t="n">
-        <v>526.4896828681578</v>
+        <v>526.4896828681577</v>
       </c>
       <c r="T14" t="n">
-        <v>526.4896828681578</v>
+        <v>526.489682868158</v>
       </c>
       <c r="U14" t="n">
-        <v>526.4896828681578</v>
+        <v>526.489682868158</v>
       </c>
       <c r="V14" t="n">
-        <v>526.4896828681578</v>
+        <v>411.7975235749976</v>
       </c>
       <c r="W14" t="n">
-        <v>526.4896828681578</v>
+        <v>411.7975235749976</v>
       </c>
       <c r="X14" t="n">
-        <v>526.4896828681578</v>
+        <v>411.7975235749976</v>
       </c>
       <c r="Y14" t="n">
-        <v>393.5377427499361</v>
+        <v>411.7975235749976</v>
       </c>
     </row>
     <row r="15">
@@ -5337,61 +5337,61 @@
         <v>10.52979365736316</v>
       </c>
       <c r="D15" t="n">
-        <v>10.52979365736316</v>
+        <v>35.66705535392257</v>
       </c>
       <c r="E15" t="n">
-        <v>10.52979365736316</v>
+        <v>35.66705535392257</v>
       </c>
       <c r="F15" t="n">
-        <v>10.52979365736316</v>
+        <v>35.66705535392257</v>
       </c>
       <c r="G15" t="n">
-        <v>10.52979365736316</v>
+        <v>35.66705535392257</v>
       </c>
       <c r="H15" t="n">
-        <v>10.52979365736316</v>
+        <v>35.66705535392257</v>
       </c>
       <c r="I15" t="n">
-        <v>10.52979365736316</v>
+        <v>35.66705535392257</v>
       </c>
       <c r="J15" t="n">
-        <v>10.52979365736316</v>
+        <v>35.66705535392257</v>
       </c>
       <c r="K15" t="n">
-        <v>10.52979365736316</v>
+        <v>35.66705535392257</v>
       </c>
       <c r="L15" t="n">
-        <v>35.66705535392275</v>
+        <v>35.66705535392257</v>
       </c>
       <c r="M15" t="n">
-        <v>35.66705535392275</v>
+        <v>35.66705535392257</v>
       </c>
       <c r="N15" t="n">
-        <v>35.66705535392275</v>
+        <v>35.66705535392257</v>
       </c>
       <c r="O15" t="n">
-        <v>35.66705535392275</v>
+        <v>35.66705535392257</v>
       </c>
       <c r="P15" t="n">
-        <v>35.66705535392275</v>
+        <v>35.66705535392257</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.66705535392275</v>
+        <v>35.66705535392257</v>
       </c>
       <c r="R15" t="n">
-        <v>35.66705535392275</v>
+        <v>35.66705535392257</v>
       </c>
       <c r="S15" t="n">
-        <v>35.66705535392275</v>
+        <v>35.66705535392257</v>
       </c>
       <c r="T15" t="n">
-        <v>35.66705535392275</v>
+        <v>35.66705535392257</v>
       </c>
       <c r="U15" t="n">
-        <v>35.66705535392275</v>
+        <v>35.66705535392257</v>
       </c>
       <c r="V15" t="n">
-        <v>29.55854761315492</v>
+        <v>29.55854761315483</v>
       </c>
       <c r="W15" t="n">
         <v>10.52979365736316</v>
@@ -5419,61 +5419,61 @@
         <v>10.52979365736316</v>
       </c>
       <c r="E16" t="n">
-        <v>66.38269690373062</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="F16" t="n">
-        <v>66.38269690373062</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="G16" t="n">
-        <v>66.38269690373062</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="H16" t="n">
-        <v>66.38269690373062</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="I16" t="n">
-        <v>66.38269690373062</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="J16" t="n">
-        <v>66.38269690373062</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="K16" t="n">
-        <v>66.38269690373062</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="L16" t="n">
-        <v>66.38269690373062</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="M16" t="n">
-        <v>196.6888934135997</v>
+        <v>140.8359901672322</v>
       </c>
       <c r="N16" t="n">
-        <v>196.6888934135997</v>
+        <v>140.8359901672322</v>
       </c>
       <c r="O16" t="n">
-        <v>196.6888934135997</v>
+        <v>140.8359901672322</v>
       </c>
       <c r="P16" t="n">
-        <v>196.6888934135997</v>
+        <v>140.8359901672322</v>
       </c>
       <c r="Q16" t="n">
-        <v>196.6888934135997</v>
+        <v>140.8359901672322</v>
       </c>
       <c r="R16" t="n">
-        <v>196.6888934135997</v>
+        <v>196.6888934135993</v>
       </c>
       <c r="S16" t="n">
-        <v>196.6888934135997</v>
+        <v>196.6888934135993</v>
       </c>
       <c r="T16" t="n">
-        <v>186.7041638411205</v>
+        <v>186.7041638411202</v>
       </c>
       <c r="U16" t="n">
-        <v>121.8126192534711</v>
+        <v>121.8126192534708</v>
       </c>
       <c r="V16" t="n">
-        <v>83.36442962279187</v>
+        <v>83.3644296227917</v>
       </c>
       <c r="W16" t="n">
-        <v>19.49514295108919</v>
+        <v>19.49514295108911</v>
       </c>
       <c r="X16" t="n">
         <v>10.52979365736316</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>323.6075332018794</v>
+        <v>323.6075332018785</v>
       </c>
       <c r="C17" t="n">
-        <v>274.9232925348601</v>
+        <v>274.923292534859</v>
       </c>
       <c r="D17" t="n">
-        <v>235.3488457622572</v>
+        <v>235.3488457622557</v>
       </c>
       <c r="E17" t="n">
-        <v>173.8126438685374</v>
+        <v>173.8126438685358</v>
       </c>
       <c r="F17" t="n">
-        <v>92.91097117888066</v>
+        <v>92.9109711788807</v>
       </c>
       <c r="G17" t="n">
         <v>10.52979365736316</v>
       </c>
       <c r="H17" t="n">
-        <v>15.70014978319172</v>
+        <v>15.70014978319167</v>
       </c>
       <c r="I17" t="n">
-        <v>15.70014978319172</v>
+        <v>15.70014978319167</v>
       </c>
       <c r="J17" t="n">
-        <v>15.70014978319172</v>
+        <v>15.70014978319167</v>
       </c>
       <c r="K17" t="n">
-        <v>15.70014978319172</v>
+        <v>15.70014978319167</v>
       </c>
       <c r="L17" t="n">
-        <v>58.72924903787595</v>
+        <v>135.5710933385506</v>
       </c>
       <c r="M17" t="n">
-        <v>189.035445547745</v>
+        <v>265.8772898484197</v>
       </c>
       <c r="N17" t="n">
-        <v>319.3416420576141</v>
+        <v>396.1834863582887</v>
       </c>
       <c r="O17" t="n">
-        <v>319.3416420576141</v>
+        <v>396.1834863582887</v>
       </c>
       <c r="P17" t="n">
-        <v>319.3416420576141</v>
+        <v>396.1834863582887</v>
       </c>
       <c r="Q17" t="n">
-        <v>449.6478385674832</v>
+        <v>396.1834863582887</v>
       </c>
       <c r="R17" t="n">
-        <v>449.6478385674832</v>
+        <v>526.4896828681577</v>
       </c>
       <c r="S17" t="n">
-        <v>449.6478385674832</v>
+        <v>526.4896828681577</v>
       </c>
       <c r="T17" t="n">
-        <v>449.6478385674832</v>
+        <v>526.4896828681577</v>
       </c>
       <c r="U17" t="n">
-        <v>526.4896828681578</v>
+        <v>526.4896828681577</v>
       </c>
       <c r="V17" t="n">
-        <v>522.7599267642724</v>
+        <v>522.7599267642722</v>
       </c>
       <c r="W17" t="n">
-        <v>493.4745146220475</v>
+        <v>493.4745146220465</v>
       </c>
       <c r="X17" t="n">
-        <v>444.6938921437141</v>
+        <v>444.6938921437132</v>
       </c>
       <c r="Y17" t="n">
-        <v>384.4015547197253</v>
+        <v>384.4015547197244</v>
       </c>
     </row>
     <row r="18">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>323.6075332018791</v>
+        <v>323.6075332018786</v>
       </c>
       <c r="C20" t="n">
-        <v>274.9232925348599</v>
+        <v>274.9232925348592</v>
       </c>
       <c r="D20" t="n">
-        <v>235.348845762257</v>
+        <v>235.348845762256</v>
       </c>
       <c r="E20" t="n">
-        <v>173.8126438685372</v>
+        <v>173.8126438685364</v>
       </c>
       <c r="F20" t="n">
-        <v>92.91097117888064</v>
+        <v>92.9109711788807</v>
       </c>
       <c r="G20" t="n">
         <v>10.52979365736316</v>
       </c>
       <c r="H20" t="n">
-        <v>15.70014978319172</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="I20" t="n">
-        <v>15.70014978319172</v>
+        <v>135.5710933385506</v>
       </c>
       <c r="J20" t="n">
-        <v>146.0063462930608</v>
+        <v>135.5710933385506</v>
       </c>
       <c r="K20" t="n">
-        <v>146.0063462930608</v>
+        <v>135.5710933385506</v>
       </c>
       <c r="L20" t="n">
-        <v>276.3125428029299</v>
+        <v>135.5710933385506</v>
       </c>
       <c r="M20" t="n">
-        <v>276.3125428029299</v>
+        <v>265.8772898484197</v>
       </c>
       <c r="N20" t="n">
-        <v>287.4292349924802</v>
+        <v>265.8772898484197</v>
       </c>
       <c r="O20" t="n">
-        <v>287.4292349924802</v>
+        <v>265.8772898484197</v>
       </c>
       <c r="P20" t="n">
-        <v>417.7354315023493</v>
+        <v>265.8772898484197</v>
       </c>
       <c r="Q20" t="n">
-        <v>417.7354315023493</v>
+        <v>396.1834863582887</v>
       </c>
       <c r="R20" t="n">
-        <v>417.7354315023493</v>
+        <v>396.1834863582887</v>
       </c>
       <c r="S20" t="n">
-        <v>417.7354315023493</v>
+        <v>526.4896828681577</v>
       </c>
       <c r="T20" t="n">
-        <v>526.4896828681578</v>
+        <v>526.4896828681577</v>
       </c>
       <c r="U20" t="n">
-        <v>526.4896828681578</v>
+        <v>526.4896828681577</v>
       </c>
       <c r="V20" t="n">
-        <v>522.7599267642727</v>
+        <v>522.7599267642719</v>
       </c>
       <c r="W20" t="n">
-        <v>493.474514622047</v>
+        <v>493.4745146220463</v>
       </c>
       <c r="X20" t="n">
-        <v>444.6938921437135</v>
+        <v>444.6938921437132</v>
       </c>
       <c r="Y20" t="n">
-        <v>384.4015547197248</v>
+        <v>384.4015547197245</v>
       </c>
     </row>
     <row r="21">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>323.6075332018789</v>
+        <v>323.6075332018791</v>
       </c>
       <c r="C23" t="n">
-        <v>274.9232925348596</v>
+        <v>274.9232925348597</v>
       </c>
       <c r="D23" t="n">
-        <v>235.3488457622564</v>
+        <v>235.3488457622565</v>
       </c>
       <c r="E23" t="n">
-        <v>173.8126438685366</v>
+        <v>173.8126438685368</v>
       </c>
       <c r="F23" t="n">
-        <v>92.91097117888017</v>
+        <v>92.91097117888064</v>
       </c>
       <c r="G23" t="n">
-        <v>10.52979365736267</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="H23" t="n">
-        <v>10.52979365736267</v>
+        <v>15.70014978319172</v>
       </c>
       <c r="I23" t="n">
-        <v>10.52979365736267</v>
+        <v>146.0063462930608</v>
       </c>
       <c r="J23" t="n">
-        <v>10.52979365736316</v>
+        <v>276.3125428029298</v>
       </c>
       <c r="K23" t="n">
-        <v>10.52979365736316</v>
+        <v>276.3125428029298</v>
       </c>
       <c r="L23" t="n">
-        <v>140.8359901672322</v>
+        <v>276.3125428029298</v>
       </c>
       <c r="M23" t="n">
-        <v>271.1421866771013</v>
+        <v>276.3125428029298</v>
       </c>
       <c r="N23" t="n">
-        <v>401.4483831869704</v>
+        <v>276.3125428029298</v>
       </c>
       <c r="O23" t="n">
-        <v>401.4483831869704</v>
+        <v>406.6187393127988</v>
       </c>
       <c r="P23" t="n">
-        <v>401.4483831869704</v>
+        <v>406.6187393127988</v>
       </c>
       <c r="Q23" t="n">
-        <v>526.4896828681578</v>
+        <v>406.6187393127988</v>
       </c>
       <c r="R23" t="n">
-        <v>526.4896828681578</v>
+        <v>406.6187393127988</v>
       </c>
       <c r="S23" t="n">
-        <v>526.4896828681578</v>
+        <v>449.6478385674831</v>
       </c>
       <c r="T23" t="n">
-        <v>526.4896828681578</v>
+        <v>449.6478385674831</v>
       </c>
       <c r="U23" t="n">
-        <v>526.4896828681578</v>
+        <v>526.4896828681577</v>
       </c>
       <c r="V23" t="n">
-        <v>522.7599267642724</v>
+        <v>522.7599267642723</v>
       </c>
       <c r="W23" t="n">
-        <v>493.4745146220468</v>
+        <v>493.4745146220467</v>
       </c>
       <c r="X23" t="n">
-        <v>444.6938921437134</v>
+        <v>444.6938921437137</v>
       </c>
       <c r="Y23" t="n">
-        <v>384.4015547197247</v>
+        <v>384.4015547197249</v>
       </c>
     </row>
     <row r="24">
@@ -6200,73 +6200,73 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1078.782752367162</v>
+        <v>1078.782752367161</v>
       </c>
       <c r="C26" t="n">
-        <v>908.0896616929849</v>
+        <v>908.0896616929844</v>
       </c>
       <c r="D26" t="n">
-        <v>746.5063649132242</v>
+        <v>746.5063649132236</v>
       </c>
       <c r="E26" t="n">
-        <v>562.9613130123466</v>
+        <v>562.9613130123462</v>
       </c>
       <c r="F26" t="n">
-        <v>360.0507903155326</v>
+        <v>360.0507903155323</v>
       </c>
       <c r="G26" t="n">
-        <v>155.6607627868571</v>
+        <v>155.660762786857</v>
       </c>
       <c r="H26" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="I26" t="n">
-        <v>38.92724807796343</v>
+        <v>94.46953606116452</v>
       </c>
       <c r="J26" t="n">
-        <v>139.7060287000088</v>
+        <v>195.24831668321</v>
       </c>
       <c r="K26" t="n">
-        <v>438.8527264314711</v>
+        <v>284.256847135538</v>
       </c>
       <c r="L26" t="n">
-        <v>822.0178554876669</v>
+        <v>374.8517805045674</v>
       </c>
       <c r="M26" t="n">
-        <v>925.2220407001287</v>
+        <v>428.2923307243693</v>
       </c>
       <c r="N26" t="n">
-        <v>1406.946735664926</v>
+        <v>910.0170256891665</v>
       </c>
       <c r="O26" t="n">
-        <v>1507.055768753462</v>
+        <v>1391.741720653964</v>
       </c>
       <c r="P26" t="n">
-        <v>1594.800156541623</v>
+        <v>1686.604067158869</v>
       </c>
       <c r="Q26" t="n">
-        <v>1946.362403898172</v>
+        <v>1764.91692153612</v>
       </c>
       <c r="R26" t="n">
-        <v>1946.362403898172</v>
+        <v>1912.258048618166</v>
       </c>
       <c r="S26" t="n">
-        <v>1946.362403898172</v>
+        <v>1946.362403898171</v>
       </c>
       <c r="T26" t="n">
-        <v>1935.31595708029</v>
+        <v>1935.315957080289</v>
       </c>
       <c r="U26" t="n">
-        <v>1891.709152069229</v>
+        <v>1891.709152069228</v>
       </c>
       <c r="V26" t="n">
-        <v>1765.970545958186</v>
+        <v>1765.970545958185</v>
       </c>
       <c r="W26" t="n">
-        <v>1614.676283808803</v>
+        <v>1614.676283808802</v>
       </c>
       <c r="X26" t="n">
-        <v>1443.886811323312</v>
+        <v>1443.886811323311</v>
       </c>
       <c r="Y26" t="n">
         <v>1261.585623892165</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="C27" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="D27" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="E27" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="F27" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="G27" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="H27" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="I27" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="J27" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="K27" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="L27" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="M27" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="N27" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="O27" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="P27" t="n">
-        <v>93.39486775166283</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="Q27" t="n">
-        <v>93.39486775166283</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="R27" t="n">
-        <v>93.39486775166283</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="S27" t="n">
-        <v>93.39486775166283</v>
+        <v>93.39486775166256</v>
       </c>
       <c r="T27" t="n">
-        <v>93.39486775166283</v>
+        <v>93.39486775166256</v>
       </c>
       <c r="U27" t="n">
-        <v>86.15740341028817</v>
+        <v>86.15740341028798</v>
       </c>
       <c r="V27" t="n">
-        <v>69.00244885163777</v>
+        <v>69.00244885163767</v>
       </c>
       <c r="W27" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="X27" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="Y27" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="C28" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="D28" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="E28" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="F28" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="G28" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="H28" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="I28" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="J28" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="K28" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="L28" t="n">
-        <v>38.92724807796343</v>
+        <v>168.4017773575064</v>
       </c>
       <c r="M28" t="n">
-        <v>166.832853870991</v>
+        <v>168.4017773575064</v>
       </c>
       <c r="N28" t="n">
-        <v>166.832853870991</v>
+        <v>168.4017773575064</v>
       </c>
       <c r="O28" t="n">
-        <v>291.1130727383202</v>
+        <v>168.4017773575064</v>
       </c>
       <c r="P28" t="n">
-        <v>291.1130727383202</v>
+        <v>168.4017773575064</v>
       </c>
       <c r="Q28" t="n">
-        <v>291.1130727383202</v>
+        <v>289.9068133957379</v>
       </c>
       <c r="R28" t="n">
-        <v>291.1130727383202</v>
+        <v>289.9068133957379</v>
       </c>
       <c r="S28" t="n">
-        <v>291.1130727383202</v>
+        <v>291.1130727383196</v>
       </c>
       <c r="T28" t="n">
-        <v>270.0818963479584</v>
+        <v>270.081896347958</v>
       </c>
       <c r="U28" t="n">
-        <v>194.1439049424264</v>
+        <v>194.143904942426</v>
       </c>
       <c r="V28" t="n">
-        <v>144.6492684938646</v>
+        <v>144.6492684938643</v>
       </c>
       <c r="W28" t="n">
-        <v>69.73353500427933</v>
+        <v>69.73353500427913</v>
       </c>
       <c r="X28" t="n">
-        <v>49.72173889267072</v>
+        <v>49.72173889267061</v>
       </c>
       <c r="Y28" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
     </row>
     <row r="29">
@@ -6437,58 +6437,58 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1078.782752367162</v>
+        <v>1078.782752367161</v>
       </c>
       <c r="C29" t="n">
-        <v>908.0896616929851</v>
+        <v>908.0896616929845</v>
       </c>
       <c r="D29" t="n">
-        <v>746.5063649132245</v>
+        <v>746.5063649132237</v>
       </c>
       <c r="E29" t="n">
-        <v>562.9613130123469</v>
+        <v>562.9613130123463</v>
       </c>
       <c r="F29" t="n">
-        <v>360.050790315533</v>
+        <v>360.0507903155324</v>
       </c>
       <c r="G29" t="n">
         <v>155.660762786857</v>
       </c>
       <c r="H29" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="I29" t="n">
-        <v>94.46953606116455</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="J29" t="n">
-        <v>195.2483166832101</v>
+        <v>357.3333724264678</v>
       </c>
       <c r="K29" t="n">
-        <v>626.7094516827949</v>
+        <v>790.3286267876479</v>
       </c>
       <c r="L29" t="n">
-        <v>1108.434146647592</v>
+        <v>1198.46976908467</v>
       </c>
       <c r="M29" t="n">
-        <v>1211.638331860054</v>
+        <v>1301.673954297132</v>
       </c>
       <c r="N29" t="n">
-        <v>1316.911113227847</v>
+        <v>1406.946735664925</v>
       </c>
       <c r="O29" t="n">
-        <v>1798.635808192644</v>
+        <v>1507.05576875346</v>
       </c>
       <c r="P29" t="n">
-        <v>1798.635808192644</v>
+        <v>1594.800156541622</v>
       </c>
       <c r="Q29" t="n">
-        <v>1849.49395391265</v>
+        <v>1946.362403898171</v>
       </c>
       <c r="R29" t="n">
-        <v>1912.258048618167</v>
+        <v>1946.362403898171</v>
       </c>
       <c r="S29" t="n">
-        <v>1946.362403898172</v>
+        <v>1946.362403898171</v>
       </c>
       <c r="T29" t="n">
         <v>1935.315957080289</v>
@@ -6500,10 +6500,10 @@
         <v>1765.970545958186</v>
       </c>
       <c r="W29" t="n">
-        <v>1614.676283808803</v>
+        <v>1614.676283808802</v>
       </c>
       <c r="X29" t="n">
-        <v>1443.886811323312</v>
+        <v>1443.886811323311</v>
       </c>
       <c r="Y29" t="n">
         <v>1261.585623892165</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="C30" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="D30" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="E30" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="F30" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="G30" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="H30" t="n">
-        <v>93.39486775166249</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="I30" t="n">
-        <v>93.39486775166249</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="J30" t="n">
-        <v>93.39486775166249</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="K30" t="n">
-        <v>93.39486775166249</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="L30" t="n">
-        <v>93.39486775166249</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="M30" t="n">
-        <v>93.39486775166249</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="N30" t="n">
-        <v>93.39486775166249</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="O30" t="n">
-        <v>93.39486775166249</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="P30" t="n">
-        <v>93.39486775166249</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="Q30" t="n">
-        <v>93.39486775166249</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="R30" t="n">
-        <v>93.39486775166249</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="S30" t="n">
-        <v>93.39486775166249</v>
+        <v>93.39486775166256</v>
       </c>
       <c r="T30" t="n">
-        <v>93.39486775166249</v>
+        <v>93.39486775166256</v>
       </c>
       <c r="U30" t="n">
-        <v>86.15740341028794</v>
+        <v>86.15740341028798</v>
       </c>
       <c r="V30" t="n">
-        <v>69.00244885163765</v>
+        <v>69.00244885163767</v>
       </c>
       <c r="W30" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="X30" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="Y30" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="C31" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="D31" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="E31" t="n">
-        <v>96.98019192258676</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="F31" t="n">
-        <v>154.5708806823056</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="G31" t="n">
-        <v>196.2576909966956</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="H31" t="n">
-        <v>196.2576909966956</v>
+        <v>91.61309310009995</v>
       </c>
       <c r="I31" t="n">
-        <v>196.2576909966956</v>
+        <v>91.61309310009995</v>
       </c>
       <c r="J31" t="n">
-        <v>196.2576909966956</v>
+        <v>91.61309310009995</v>
       </c>
       <c r="K31" t="n">
-        <v>196.2576909966956</v>
+        <v>91.61309310009995</v>
       </c>
       <c r="L31" t="n">
-        <v>196.2576909966956</v>
+        <v>91.61309310009995</v>
       </c>
       <c r="M31" t="n">
-        <v>196.2576909966956</v>
+        <v>91.61309310009995</v>
       </c>
       <c r="N31" t="n">
-        <v>291.1130727383195</v>
+        <v>289.9068133957379</v>
       </c>
       <c r="O31" t="n">
-        <v>291.1130727383195</v>
+        <v>289.9068133957379</v>
       </c>
       <c r="P31" t="n">
-        <v>291.1130727383195</v>
+        <v>289.9068133957379</v>
       </c>
       <c r="Q31" t="n">
-        <v>291.1130727383195</v>
+        <v>289.9068133957379</v>
       </c>
       <c r="R31" t="n">
-        <v>291.1130727383195</v>
+        <v>289.9068133957379</v>
       </c>
       <c r="S31" t="n">
-        <v>291.1130727383195</v>
+        <v>291.1130727383196</v>
       </c>
       <c r="T31" t="n">
-        <v>270.0818963479579</v>
+        <v>270.081896347958</v>
       </c>
       <c r="U31" t="n">
-        <v>194.1439049424259</v>
+        <v>194.143904942426</v>
       </c>
       <c r="V31" t="n">
         <v>144.6492684938643</v>
       </c>
       <c r="W31" t="n">
-        <v>69.7335350042791</v>
+        <v>69.73353500427913</v>
       </c>
       <c r="X31" t="n">
-        <v>49.7217388926706</v>
+        <v>49.72173889267061</v>
       </c>
       <c r="Y31" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>1078.782752367161</v>
       </c>
       <c r="C32" t="n">
-        <v>908.0896616929845</v>
+        <v>908.0896616929842</v>
       </c>
       <c r="D32" t="n">
-        <v>746.5063649132237</v>
+        <v>746.5063649132235</v>
       </c>
       <c r="E32" t="n">
-        <v>562.9613130123462</v>
+        <v>562.961313012346</v>
       </c>
       <c r="F32" t="n">
-        <v>360.0507903155321</v>
+        <v>360.0507903155319</v>
       </c>
       <c r="G32" t="n">
-        <v>155.6607627868571</v>
+        <v>155.660762786857</v>
       </c>
       <c r="H32" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="I32" t="n">
-        <v>94.46953606116443</v>
+        <v>94.46953606116449</v>
       </c>
       <c r="J32" t="n">
-        <v>94.46953606116443</v>
+        <v>412.8756604096689</v>
       </c>
       <c r="K32" t="n">
-        <v>183.4780665134923</v>
+        <v>894.6003553744661</v>
       </c>
       <c r="L32" t="n">
-        <v>183.4780665134923</v>
+        <v>1090.175057415369</v>
       </c>
       <c r="M32" t="n">
-        <v>286.682251725954</v>
+        <v>1090.175057415369</v>
       </c>
       <c r="N32" t="n">
-        <v>568.5866719065111</v>
+        <v>1195.447838783162</v>
       </c>
       <c r="O32" t="n">
-        <v>1050.311366871309</v>
+        <v>1677.172533747959</v>
       </c>
       <c r="P32" t="n">
-        <v>1532.036061836106</v>
+        <v>1764.91692153612</v>
       </c>
       <c r="Q32" t="n">
-        <v>1883.598309192655</v>
+        <v>1764.91692153612</v>
       </c>
       <c r="R32" t="n">
-        <v>1946.362403898172</v>
+        <v>1912.258048618166</v>
       </c>
       <c r="S32" t="n">
-        <v>1946.362403898172</v>
+        <v>1946.362403898171</v>
       </c>
       <c r="T32" t="n">
-        <v>1935.315957080289</v>
+        <v>1935.315957080288</v>
       </c>
       <c r="U32" t="n">
-        <v>1891.709152069229</v>
+        <v>1891.709152069228</v>
       </c>
       <c r="V32" t="n">
-        <v>1765.970545958186</v>
+        <v>1765.970545958185</v>
       </c>
       <c r="W32" t="n">
-        <v>1614.676283808803</v>
+        <v>1614.676283808802</v>
       </c>
       <c r="X32" t="n">
-        <v>1443.886811323312</v>
+        <v>1443.886811323311</v>
       </c>
       <c r="Y32" t="n">
         <v>1261.585623892165</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="C33" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="D33" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="E33" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="F33" t="n">
-        <v>38.92724807796343</v>
+        <v>93.39486775166264</v>
       </c>
       <c r="G33" t="n">
-        <v>38.92724807796343</v>
+        <v>93.39486775166264</v>
       </c>
       <c r="H33" t="n">
-        <v>38.92724807796343</v>
+        <v>93.39486775166264</v>
       </c>
       <c r="I33" t="n">
-        <v>38.92724807796343</v>
+        <v>93.39486775166264</v>
       </c>
       <c r="J33" t="n">
-        <v>38.92724807796343</v>
+        <v>93.39486775166264</v>
       </c>
       <c r="K33" t="n">
-        <v>38.92724807796343</v>
+        <v>93.39486775166264</v>
       </c>
       <c r="L33" t="n">
-        <v>38.92724807796343</v>
+        <v>93.39486775166264</v>
       </c>
       <c r="M33" t="n">
-        <v>38.92724807796343</v>
+        <v>93.39486775166264</v>
       </c>
       <c r="N33" t="n">
-        <v>38.92724807796343</v>
+        <v>93.39486775166264</v>
       </c>
       <c r="O33" t="n">
-        <v>38.92724807796343</v>
+        <v>93.39486775166264</v>
       </c>
       <c r="P33" t="n">
-        <v>38.92724807796343</v>
+        <v>93.39486775166264</v>
       </c>
       <c r="Q33" t="n">
-        <v>93.39486775166283</v>
+        <v>93.39486775166264</v>
       </c>
       <c r="R33" t="n">
-        <v>93.39486775166283</v>
+        <v>93.39486775166264</v>
       </c>
       <c r="S33" t="n">
-        <v>93.39486775166283</v>
+        <v>93.39486775166264</v>
       </c>
       <c r="T33" t="n">
-        <v>93.39486775166283</v>
+        <v>93.39486775166264</v>
       </c>
       <c r="U33" t="n">
-        <v>86.15740341028817</v>
+        <v>86.15740341028804</v>
       </c>
       <c r="V33" t="n">
-        <v>69.00244885163777</v>
+        <v>69.00244885163769</v>
       </c>
       <c r="W33" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="X33" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="Y33" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="C34" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="D34" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="E34" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="F34" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="G34" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="H34" t="n">
-        <v>91.61309310009989</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="I34" t="n">
-        <v>163.5741183412249</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="J34" t="n">
-        <v>163.5741183412249</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="K34" t="n">
-        <v>169.6950598580581</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="L34" t="n">
-        <v>169.6950598580581</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="M34" t="n">
-        <v>169.6950598580581</v>
+        <v>38.92724807796341</v>
       </c>
       <c r="N34" t="n">
-        <v>169.6950598580581</v>
+        <v>164.8300395000131</v>
       </c>
       <c r="O34" t="n">
-        <v>169.6950598580581</v>
+        <v>289.9068133957381</v>
       </c>
       <c r="P34" t="n">
-        <v>291.1130727383202</v>
+        <v>289.9068133957381</v>
       </c>
       <c r="Q34" t="n">
-        <v>291.1130727383202</v>
+        <v>289.9068133957381</v>
       </c>
       <c r="R34" t="n">
-        <v>291.1130727383202</v>
+        <v>289.9068133957381</v>
       </c>
       <c r="S34" t="n">
-        <v>291.1130727383202</v>
+        <v>291.1130727383198</v>
       </c>
       <c r="T34" t="n">
-        <v>270.0818963479584</v>
+        <v>270.0818963479581</v>
       </c>
       <c r="U34" t="n">
-        <v>194.1439049424264</v>
+        <v>194.1439049424261</v>
       </c>
       <c r="V34" t="n">
-        <v>144.6492684938646</v>
+        <v>144.6492684938644</v>
       </c>
       <c r="W34" t="n">
-        <v>69.73353500427933</v>
+        <v>69.7335350042792</v>
       </c>
       <c r="X34" t="n">
-        <v>49.72173889267072</v>
+        <v>49.72173889267064</v>
       </c>
       <c r="Y34" t="n">
-        <v>38.92724807796343</v>
+        <v>38.92724807796341</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>815.7962375133425</v>
+        <v>815.7962375133418</v>
       </c>
       <c r="C35" t="n">
-        <v>687.1792670385748</v>
+        <v>687.1792670385742</v>
       </c>
       <c r="D35" t="n">
-        <v>567.6720904582234</v>
+        <v>567.6720904582228</v>
       </c>
       <c r="E35" t="n">
-        <v>426.2031587567552</v>
+        <v>426.2031587567546</v>
       </c>
       <c r="F35" t="n">
-        <v>265.3687562593504</v>
+        <v>265.3687562593499</v>
       </c>
       <c r="G35" t="n">
-        <v>103.0548489300846</v>
+        <v>103.0548489300845</v>
       </c>
       <c r="H35" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="I35" t="n">
         <v>125.1785478112424</v>
       </c>
       <c r="J35" t="n">
-        <v>267.1961338407288</v>
+        <v>267.196133840729</v>
       </c>
       <c r="K35" t="n">
-        <v>397.4434697004976</v>
+        <v>397.4434697004979</v>
       </c>
       <c r="L35" t="n">
-        <v>529.2772084769681</v>
+        <v>529.2772084769683</v>
       </c>
       <c r="M35" t="n">
-        <v>673.7201990968707</v>
+        <v>673.7201990968713</v>
       </c>
       <c r="N35" t="n">
-        <v>820.2317858721042</v>
+        <v>820.2317858721049</v>
       </c>
       <c r="O35" t="n">
-        <v>961.5796243680809</v>
+        <v>961.5796243680816</v>
       </c>
       <c r="P35" t="n">
-        <v>1090.562817563683</v>
+        <v>1090.562817563682</v>
       </c>
       <c r="Q35" t="n">
-        <v>1210.114477348376</v>
+        <v>1210.114477348375</v>
       </c>
       <c r="R35" t="n">
-        <v>1314.117377461334</v>
+        <v>1314.117377461333</v>
       </c>
       <c r="S35" t="n">
-        <v>1389.46053814878</v>
+        <v>1389.460538148779</v>
       </c>
       <c r="T35" t="n">
-        <v>1419.872721030014</v>
+        <v>1419.872721030013</v>
       </c>
       <c r="U35" t="n">
-        <v>1418.342036218363</v>
+        <v>1418.342036218362</v>
       </c>
       <c r="V35" t="n">
         <v>1334.679550306729</v>
       </c>
       <c r="W35" t="n">
-        <v>1225.461408356755</v>
+        <v>1225.461408356754</v>
       </c>
       <c r="X35" t="n">
-        <v>1096.748056070674</v>
+        <v>1096.748056070673</v>
       </c>
       <c r="Y35" t="n">
-        <v>956.5229888389365</v>
+        <v>956.5229888389358</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="C36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="D36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="E36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="F36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="G36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="H36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="I36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="J36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="K36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="L36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="M36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="N36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="O36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="P36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="R36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="S36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="T36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="U36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="V36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="W36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="X36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="Y36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="C37" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="D37" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="E37" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="F37" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="G37" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="H37" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="I37" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="J37" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="K37" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="L37" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="M37" t="n">
-        <v>28.39745442060028</v>
+        <v>60.07239041602846</v>
       </c>
       <c r="N37" t="n">
-        <v>28.39745442060028</v>
+        <v>60.07239041602846</v>
       </c>
       <c r="O37" t="n">
-        <v>28.39745442060028</v>
+        <v>60.07239041602846</v>
       </c>
       <c r="P37" t="n">
-        <v>102.5174551660514</v>
+        <v>60.07239041602846</v>
       </c>
       <c r="Q37" t="n">
-        <v>102.5174551660514</v>
+        <v>60.07239041602846</v>
       </c>
       <c r="R37" t="n">
-        <v>102.5174551660514</v>
+        <v>60.07239041602846</v>
       </c>
       <c r="S37" t="n">
-        <v>102.5174551660514</v>
+        <v>102.5174551660512</v>
       </c>
       <c r="T37" t="n">
-        <v>102.5174551660514</v>
+        <v>102.5174551660512</v>
       </c>
       <c r="U37" t="n">
-        <v>68.65558395992869</v>
+        <v>68.65558395992855</v>
       </c>
       <c r="V37" t="n">
-        <v>61.23706771077623</v>
+        <v>61.23706771077615</v>
       </c>
       <c r="W37" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="X37" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>815.7962375133425</v>
+        <v>815.7962375133418</v>
       </c>
       <c r="C38" t="n">
-        <v>687.1792670385748</v>
+        <v>687.1792670385742</v>
       </c>
       <c r="D38" t="n">
-        <v>567.6720904582234</v>
+        <v>567.6720904582227</v>
       </c>
       <c r="E38" t="n">
-        <v>426.2031587567552</v>
+        <v>426.2031587567545</v>
       </c>
       <c r="F38" t="n">
-        <v>265.3687562593504</v>
+        <v>265.3687562593499</v>
       </c>
       <c r="G38" t="n">
-        <v>103.0548489300846</v>
+        <v>103.0548489300841</v>
       </c>
       <c r="H38" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="I38" t="n">
-        <v>125.1785478112424</v>
+        <v>125.1785478112423</v>
       </c>
       <c r="J38" t="n">
-        <v>267.1961338407291</v>
+        <v>267.1961338407288</v>
       </c>
       <c r="K38" t="n">
-        <v>397.4434697004979</v>
+        <v>397.4434697004977</v>
       </c>
       <c r="L38" t="n">
-        <v>529.2772084769683</v>
+        <v>529.2772084769681</v>
       </c>
       <c r="M38" t="n">
-        <v>673.7201990968712</v>
+        <v>673.7201990968709</v>
       </c>
       <c r="N38" t="n">
-        <v>820.2317858721044</v>
+        <v>820.2317858721035</v>
       </c>
       <c r="O38" t="n">
-        <v>961.5796243680811</v>
+        <v>961.5796243680802</v>
       </c>
       <c r="P38" t="n">
         <v>1090.562817563683</v>
       </c>
       <c r="Q38" t="n">
-        <v>1210.114477348376</v>
+        <v>1210.114477348375</v>
       </c>
       <c r="R38" t="n">
-        <v>1314.117377461334</v>
+        <v>1314.117377461333</v>
       </c>
       <c r="S38" t="n">
-        <v>1389.46053814878</v>
+        <v>1389.460538148779</v>
       </c>
       <c r="T38" t="n">
         <v>1419.872721030014</v>
       </c>
       <c r="U38" t="n">
-        <v>1418.342036218363</v>
+        <v>1418.342036218362</v>
       </c>
       <c r="V38" t="n">
         <v>1334.679550306729</v>
       </c>
       <c r="W38" t="n">
-        <v>1225.461408356755</v>
+        <v>1225.461408356754</v>
       </c>
       <c r="X38" t="n">
-        <v>1096.748056070674</v>
+        <v>1096.748056070673</v>
       </c>
       <c r="Y38" t="n">
-        <v>956.5229888389367</v>
+        <v>956.5229888389359</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="C39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="D39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="E39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="F39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="G39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="H39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="I39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="J39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="K39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="L39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="M39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="N39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="O39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="P39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="R39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="S39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="T39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="U39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="V39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="W39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="X39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="Y39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>96.77062168043533</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="C40" t="n">
-        <v>96.77062168043533</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="D40" t="n">
-        <v>96.77062168043533</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="E40" t="n">
-        <v>102.5174551660513</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="F40" t="n">
-        <v>102.5174551660513</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="G40" t="n">
-        <v>102.5174551660513</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="H40" t="n">
-        <v>102.5174551660513</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="I40" t="n">
-        <v>102.5174551660513</v>
+        <v>60.07239041602846</v>
       </c>
       <c r="J40" t="n">
-        <v>102.5174551660513</v>
+        <v>60.07239041602846</v>
       </c>
       <c r="K40" t="n">
-        <v>102.5174551660513</v>
+        <v>60.07239041602846</v>
       </c>
       <c r="L40" t="n">
-        <v>102.5174551660513</v>
+        <v>60.07239041602846</v>
       </c>
       <c r="M40" t="n">
-        <v>102.5174551660513</v>
+        <v>60.07239041602846</v>
       </c>
       <c r="N40" t="n">
-        <v>102.5174551660513</v>
+        <v>60.07239041602846</v>
       </c>
       <c r="O40" t="n">
-        <v>102.5174551660513</v>
+        <v>60.07239041602846</v>
       </c>
       <c r="P40" t="n">
-        <v>102.5174551660513</v>
+        <v>60.07239041602846</v>
       </c>
       <c r="Q40" t="n">
-        <v>102.5174551660513</v>
+        <v>60.07239041602846</v>
       </c>
       <c r="R40" t="n">
-        <v>102.5174551660513</v>
+        <v>60.07239041602846</v>
       </c>
       <c r="S40" t="n">
-        <v>102.5174551660513</v>
+        <v>102.5174551660512</v>
       </c>
       <c r="T40" t="n">
-        <v>102.5174551660513</v>
+        <v>102.5174551660512</v>
       </c>
       <c r="U40" t="n">
-        <v>68.65558395992863</v>
+        <v>68.65558395992855</v>
       </c>
       <c r="V40" t="n">
-        <v>61.2370677107762</v>
+        <v>61.23706771077615</v>
       </c>
       <c r="W40" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="X40" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>815.7962375133421</v>
+        <v>815.7962375133416</v>
       </c>
       <c r="C41" t="n">
-        <v>687.1792670385744</v>
+        <v>687.1792670385737</v>
       </c>
       <c r="D41" t="n">
-        <v>567.672090458223</v>
+        <v>567.6720904582223</v>
       </c>
       <c r="E41" t="n">
-        <v>426.2031587567549</v>
+        <v>426.2031587567544</v>
       </c>
       <c r="F41" t="n">
-        <v>265.3687562593504</v>
+        <v>265.3687562593499</v>
       </c>
       <c r="G41" t="n">
-        <v>103.0548489300846</v>
+        <v>103.0548489300845</v>
       </c>
       <c r="H41" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="I41" t="n">
-        <v>125.1785478112424</v>
+        <v>125.1785478112425</v>
       </c>
       <c r="J41" t="n">
-        <v>267.1961338407282</v>
+        <v>267.1961338407291</v>
       </c>
       <c r="K41" t="n">
-        <v>397.4434697004971</v>
+        <v>397.4434697004981</v>
       </c>
       <c r="L41" t="n">
-        <v>529.2772084769675</v>
+        <v>529.2772084769657</v>
       </c>
       <c r="M41" t="n">
-        <v>673.7201990968704</v>
+        <v>673.7201990968687</v>
       </c>
       <c r="N41" t="n">
-        <v>820.2317858721038</v>
+        <v>820.2317858721023</v>
       </c>
       <c r="O41" t="n">
-        <v>961.5796243680805</v>
+        <v>961.5796243680791</v>
       </c>
       <c r="P41" t="n">
-        <v>1090.562817563683</v>
+        <v>1090.562817563682</v>
       </c>
       <c r="Q41" t="n">
-        <v>1210.114477348375</v>
+        <v>1210.114477348374</v>
       </c>
       <c r="R41" t="n">
         <v>1314.117377461333</v>
       </c>
       <c r="S41" t="n">
-        <v>1389.46053814878</v>
+        <v>1389.460538148779</v>
       </c>
       <c r="T41" t="n">
-        <v>1419.872721030014</v>
+        <v>1419.872721030013</v>
       </c>
       <c r="U41" t="n">
-        <v>1418.342036218363</v>
+        <v>1418.342036218362</v>
       </c>
       <c r="V41" t="n">
-        <v>1334.679550306729</v>
+        <v>1334.679550306728</v>
       </c>
       <c r="W41" t="n">
-        <v>1225.461408356755</v>
+        <v>1225.461408356754</v>
       </c>
       <c r="X41" t="n">
         <v>1096.748056070673</v>
       </c>
       <c r="Y41" t="n">
-        <v>956.5229888389363</v>
+        <v>956.5229888389356</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="C42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="D42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="E42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="F42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="G42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="H42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="I42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="J42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="K42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="L42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="M42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="N42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="O42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="P42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="R42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="S42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="T42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="U42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="V42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="W42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="X42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="Y42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="C43" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="D43" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="E43" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="F43" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="G43" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="H43" t="n">
-        <v>102.5174551660512</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="I43" t="n">
-        <v>102.5174551660512</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="J43" t="n">
-        <v>102.5174551660512</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="K43" t="n">
-        <v>102.5174551660512</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="L43" t="n">
-        <v>102.5174551660512</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="M43" t="n">
-        <v>102.5174551660512</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="N43" t="n">
-        <v>102.5174551660512</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="O43" t="n">
-        <v>102.5174551660512</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="P43" t="n">
-        <v>102.5174551660512</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="Q43" t="n">
-        <v>102.5174551660512</v>
+        <v>81.8913057388034</v>
       </c>
       <c r="R43" t="n">
-        <v>102.5174551660512</v>
+        <v>81.8913057388034</v>
       </c>
       <c r="S43" t="n">
-        <v>102.5174551660512</v>
+        <v>81.8913057388034</v>
       </c>
       <c r="T43" t="n">
-        <v>102.5174551660512</v>
+        <v>102.517455166051</v>
       </c>
       <c r="U43" t="n">
-        <v>68.65558395992858</v>
+        <v>68.65558395992844</v>
       </c>
       <c r="V43" t="n">
-        <v>61.23706771077617</v>
+        <v>61.2370677107761</v>
       </c>
       <c r="W43" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="X43" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>815.7962375133422</v>
+        <v>815.7962375133415</v>
       </c>
       <c r="C44" t="n">
-        <v>687.1792670385747</v>
+        <v>687.1792670385737</v>
       </c>
       <c r="D44" t="n">
-        <v>567.6720904582232</v>
+        <v>567.6720904582226</v>
       </c>
       <c r="E44" t="n">
-        <v>426.2031587567551</v>
+        <v>426.2031587567542</v>
       </c>
       <c r="F44" t="n">
-        <v>265.3687562593507</v>
+        <v>265.3687562593495</v>
       </c>
       <c r="G44" t="n">
-        <v>103.0548489300854</v>
+        <v>103.0548489300846</v>
       </c>
       <c r="H44" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="I44" t="n">
         <v>125.1785478112424</v>
@@ -7649,22 +7649,22 @@
         <v>267.1961338407289</v>
       </c>
       <c r="K44" t="n">
-        <v>397.4434697004971</v>
+        <v>397.4434697004978</v>
       </c>
       <c r="L44" t="n">
-        <v>529.2772084769675</v>
+        <v>529.2772084769682</v>
       </c>
       <c r="M44" t="n">
-        <v>673.7201990968704</v>
+        <v>673.7201990968711</v>
       </c>
       <c r="N44" t="n">
-        <v>820.2317858721038</v>
+        <v>820.2317858721046</v>
       </c>
       <c r="O44" t="n">
-        <v>961.5796243680805</v>
+        <v>961.5796243680813</v>
       </c>
       <c r="P44" t="n">
-        <v>1090.562817563683</v>
+        <v>1090.562817563682</v>
       </c>
       <c r="Q44" t="n">
         <v>1210.114477348375</v>
@@ -7673,25 +7673,25 @@
         <v>1314.117377461333</v>
       </c>
       <c r="S44" t="n">
-        <v>1389.46053814878</v>
+        <v>1389.460538148779</v>
       </c>
       <c r="T44" t="n">
-        <v>1419.872721030014</v>
+        <v>1419.872721030013</v>
       </c>
       <c r="U44" t="n">
-        <v>1418.342036218363</v>
+        <v>1418.342036218362</v>
       </c>
       <c r="V44" t="n">
-        <v>1334.679550306729</v>
+        <v>1334.679550306728</v>
       </c>
       <c r="W44" t="n">
-        <v>1225.461408356755</v>
+        <v>1225.461408356754</v>
       </c>
       <c r="X44" t="n">
-        <v>1096.748056070674</v>
+        <v>1096.748056070673</v>
       </c>
       <c r="Y44" t="n">
-        <v>956.5229888389364</v>
+        <v>956.5229888389356</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="C45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="D45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="E45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="F45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="G45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="H45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="I45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="J45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="K45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="L45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="M45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="N45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="O45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="P45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="R45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="S45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="T45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="U45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="V45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="W45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="X45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="Y45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="C46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="D46" t="n">
-        <v>102.5174551660512</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="E46" t="n">
-        <v>102.5174551660512</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="F46" t="n">
-        <v>102.5174551660512</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="G46" t="n">
-        <v>102.5174551660512</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="H46" t="n">
-        <v>102.5174551660512</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="I46" t="n">
-        <v>102.5174551660512</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="J46" t="n">
-        <v>102.5174551660512</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="K46" t="n">
-        <v>102.5174551660512</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="L46" t="n">
-        <v>102.5174551660512</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="M46" t="n">
-        <v>102.5174551660512</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="N46" t="n">
-        <v>102.5174551660512</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="O46" t="n">
-        <v>102.5174551660512</v>
+        <v>102.5174551660513</v>
       </c>
       <c r="P46" t="n">
-        <v>102.5174551660512</v>
+        <v>102.5174551660513</v>
       </c>
       <c r="Q46" t="n">
-        <v>102.5174551660512</v>
+        <v>102.5174551660513</v>
       </c>
       <c r="R46" t="n">
-        <v>102.5174551660512</v>
+        <v>102.5174551660513</v>
       </c>
       <c r="S46" t="n">
-        <v>102.5174551660512</v>
+        <v>102.5174551660513</v>
       </c>
       <c r="T46" t="n">
-        <v>102.5174551660512</v>
+        <v>102.5174551660513</v>
       </c>
       <c r="U46" t="n">
-        <v>68.65558395992858</v>
+        <v>68.65558395992861</v>
       </c>
       <c r="V46" t="n">
-        <v>61.23706771077617</v>
+        <v>61.23706771077618</v>
       </c>
       <c r="W46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="X46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060026</v>
       </c>
     </row>
   </sheetData>
@@ -9875,28 +9875,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>421.3890363425141</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>295.5254501890571</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>380.2544581787931</v>
+        <v>380.2544581787927</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>483.8406850800018</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q26" t="n">
-        <v>276.0094878578761</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>1.164592225362867</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10033,7 +10033,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>80.40428934589781</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -10045,13 +10045,13 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>82.78808566083809</v>
       </c>
       <c r="P28" t="n">
         <v>86.48380385827534</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>19.10228369044106</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K29" t="n">
-        <v>345.911721764906</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L29" t="n">
-        <v>395.0805672684526</v>
+        <v>320.7537463919122</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,16 +10124,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>385.4703655315777</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>120.497566577569</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,7 +10197,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>51.96206476056955</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>81.7334679316096</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10267,25 +10267,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K31" t="n">
-        <v>80.40428934589781</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>78.34590850546641</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>167.3948966359156</v>
+        <v>62.74980557940998</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>86.48380385827534</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>84.9458458910769</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>107.3315132100093</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>396.6829944570397</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>246.6907500702245</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>178.4157967805704</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>385.4703655315778</v>
+        <v>385.4703655315774</v>
       </c>
       <c r="P32" t="n">
-        <v>418.3383206229274</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>276.0094878578761</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,10 +10422,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>45.67459059344021</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10504,19 +10504,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.72711371954033</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>78.3459085054664</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>71.58137972518446</v>
+        <v>198.7559165151337</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>-1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>-1.404297327081178e-12</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>-2.390072404346137e-13</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>-2.955857780762017e-12</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>-2.390072404346137e-13</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38.41643974301013</v>
+        <v>86.34058690372777</v>
       </c>
       <c r="C11" t="n">
-        <v>158.0501774177313</v>
+        <v>158.0501774177315</v>
       </c>
       <c r="D11" t="n">
-        <v>149.0314814622593</v>
+        <v>17.40906074522002</v>
       </c>
       <c r="E11" t="n">
-        <v>170.7736190321648</v>
+        <v>170.773619032165</v>
       </c>
       <c r="F11" t="n">
-        <v>189.945435120142</v>
+        <v>189.9454351201421</v>
       </c>
       <c r="G11" t="n">
-        <v>162.0301309314064</v>
+        <v>191.4101449036847</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>104.630197212101</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>32.23475461124614</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>113.5452377002289</v>
       </c>
       <c r="W11" t="n">
-        <v>7.222916461146156</v>
+        <v>7.222916461146326</v>
       </c>
       <c r="X11" t="n">
-        <v>158.1455954109322</v>
+        <v>158.1455954109324</v>
       </c>
       <c r="Y11" t="n">
-        <v>169.542193207131</v>
+        <v>37.9197724900917</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>170.0388604600497</v>
+        <v>38.41643974301022</v>
       </c>
       <c r="C14" t="n">
-        <v>26.42775670069202</v>
+        <v>26.42775670069196</v>
       </c>
       <c r="D14" t="n">
-        <v>33.09845329469118</v>
+        <v>17.40906074521993</v>
       </c>
       <c r="E14" t="n">
-        <v>170.773619032165</v>
+        <v>170.7736190321649</v>
       </c>
       <c r="F14" t="n">
-        <v>189.9454351201422</v>
+        <v>187.5576446528023</v>
       </c>
       <c r="G14" t="n">
-        <v>59.78772418664519</v>
+        <v>191.4101449036846</v>
       </c>
       <c r="H14" t="n">
-        <v>104.630197212101</v>
+        <v>104.6301972121009</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>32.23475461124627</v>
+        <v>32.23475461124619</v>
       </c>
       <c r="V14" t="n">
-        <v>113.5452377002289</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>138.8453371781858</v>
+        <v>138.8453371781857</v>
       </c>
       <c r="X14" t="n">
-        <v>158.1455954109324</v>
+        <v>158.1455954109323</v>
       </c>
       <c r="Y14" t="n">
-        <v>37.91977249009167</v>
+        <v>169.542193207131</v>
       </c>
     </row>
     <row r="15">
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>6.963318810448982e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.821454429622008e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>552161.6084488081</v>
+        <v>552161.6084488078</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>704166.7367892442</v>
+        <v>704166.736789244</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>704166.7367892441</v>
+        <v>704166.736789244</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>704166.7367892442</v>
+        <v>704166.736789244</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>633289.8499076999</v>
+        <v>633289.8499076997</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>633289.8499076999</v>
+        <v>633289.8499076997</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>708435.8841442566</v>
+        <v>708435.8841442567</v>
       </c>
       <c r="C2" t="n">
         <v>708435.8841442566</v>
       </c>
       <c r="D2" t="n">
-        <v>708435.8841442566</v>
+        <v>708435.8841442562</v>
       </c>
       <c r="E2" t="n">
         <v>619090.2882607846</v>
@@ -26326,22 +26326,22 @@
         <v>619090.2882607847</v>
       </c>
       <c r="G2" t="n">
-        <v>710052.2559571184</v>
+        <v>710052.2559571185</v>
       </c>
       <c r="H2" t="n">
+        <v>710052.2559571185</v>
+      </c>
+      <c r="I2" t="n">
         <v>710052.2559571186</v>
       </c>
-      <c r="I2" t="n">
-        <v>710052.2559571184</v>
-      </c>
       <c r="J2" t="n">
-        <v>710052.2559571191</v>
+        <v>710052.2559571192</v>
       </c>
       <c r="K2" t="n">
-        <v>710052.2559571192</v>
+        <v>710052.2559571188</v>
       </c>
       <c r="L2" t="n">
-        <v>710052.2559571188</v>
+        <v>710052.2559571189</v>
       </c>
       <c r="M2" t="n">
         <v>710052.2559571188</v>
@@ -26350,10 +26350,10 @@
         <v>710052.2559571181</v>
       </c>
       <c r="O2" t="n">
+        <v>710052.2559571184</v>
+      </c>
+      <c r="P2" t="n">
         <v>710052.2559571186</v>
-      </c>
-      <c r="P2" t="n">
-        <v>710052.2559571187</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>308990.6514115118</v>
+        <v>308990.6514115117</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>87882.22332590587</v>
+        <v>87882.22332590577</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172295.6802798568</v>
+        <v>172295.6802798567</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>87882.22332590578</v>
+        <v>87882.22332590574</v>
       </c>
       <c r="M3" t="n">
-        <v>33324.28719793218</v>
+        <v>33324.28719793222</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>79420.38572456263</v>
+        <v>79420.38572456261</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>437137.1652114342</v>
       </c>
       <c r="E4" t="n">
-        <v>341966.2726892945</v>
+        <v>341966.2726892944</v>
       </c>
       <c r="F4" t="n">
         <v>341966.2726892945</v>
@@ -26439,13 +26439,13 @@
         <v>398022.0726506228</v>
       </c>
       <c r="J4" t="n">
-        <v>405719.4410900337</v>
+        <v>405719.4410900336</v>
       </c>
       <c r="K4" t="n">
-        <v>405719.4410900337</v>
+        <v>405719.4410900336</v>
       </c>
       <c r="L4" t="n">
-        <v>405719.4410900337</v>
+        <v>405719.4410900336</v>
       </c>
       <c r="M4" t="n">
         <v>398950.3342181895</v>
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
+        <v>29044.09759212584</v>
+      </c>
+      <c r="F5" t="n">
         <v>29044.09759212585</v>
-      </c>
-      <c r="F5" t="n">
-        <v>29044.09759212584</v>
       </c>
       <c r="G5" t="n">
         <v>38279.31088310781</v>
@@ -26491,25 +26491,25 @@
         <v>38279.31088310781</v>
       </c>
       <c r="J5" t="n">
-        <v>49706.78585162481</v>
+        <v>49706.78585162479</v>
       </c>
       <c r="K5" t="n">
-        <v>49706.78585162482</v>
+        <v>49706.78585162479</v>
       </c>
       <c r="L5" t="n">
-        <v>49706.78585162481</v>
+        <v>49706.78585162479</v>
       </c>
       <c r="M5" t="n">
         <v>45206.0670475825</v>
       </c>
       <c r="N5" t="n">
-        <v>45206.06704758251</v>
+        <v>45206.0670475825</v>
       </c>
       <c r="O5" t="n">
-        <v>45206.06704758252</v>
+        <v>45206.0670475825</v>
       </c>
       <c r="P5" t="n">
-        <v>45206.06704758252</v>
+        <v>45206.0670475825</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>237671.1189328224</v>
+        <v>237666.7503603553</v>
       </c>
       <c r="C6" t="n">
-        <v>237671.1189328224</v>
+        <v>237666.7503603552</v>
       </c>
       <c r="D6" t="n">
-        <v>237671.1189328224</v>
+        <v>237666.7503603549</v>
       </c>
       <c r="E6" t="n">
-        <v>-60910.73343214762</v>
+        <v>-61156.57658808342</v>
       </c>
       <c r="F6" t="n">
-        <v>248079.9179793645</v>
+        <v>247834.0748234281</v>
       </c>
       <c r="G6" t="n">
-        <v>185868.6490974819</v>
+        <v>185868.6490974821</v>
       </c>
       <c r="H6" t="n">
+        <v>273750.8724233878</v>
+      </c>
+      <c r="I6" t="n">
         <v>273750.8724233879</v>
       </c>
-      <c r="I6" t="n">
-        <v>273750.8724233877</v>
-      </c>
       <c r="J6" t="n">
-        <v>82330.34873560361</v>
+        <v>82330.34873560397</v>
       </c>
       <c r="K6" t="n">
-        <v>254626.0290154606</v>
+        <v>254626.0290154603</v>
       </c>
       <c r="L6" t="n">
-        <v>166743.8056895546</v>
+        <v>166743.8056895548</v>
       </c>
       <c r="M6" t="n">
-        <v>232571.5674934147</v>
+        <v>232571.5674934146</v>
       </c>
       <c r="N6" t="n">
-        <v>265895.854691346</v>
+        <v>265895.8546913461</v>
       </c>
       <c r="O6" t="n">
-        <v>186475.468966784</v>
+        <v>186475.4689667838</v>
       </c>
       <c r="P6" t="n">
         <v>265895.8546913466</v>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>220.0642436627894</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="F2" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627893</v>
       </c>
       <c r="G2" t="n">
-        <v>329.9170228201716</v>
+        <v>329.9170228201715</v>
       </c>
       <c r="H2" t="n">
         <v>329.9170228201716</v>
@@ -26710,7 +26710,7 @@
         <v>209.1282613130855</v>
       </c>
       <c r="K2" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="L2" t="n">
         <v>209.1282613130855</v>
@@ -26722,7 +26722,7 @@
         <v>250.7836203105007</v>
       </c>
       <c r="O2" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105008</v>
       </c>
       <c r="P2" t="n">
         <v>250.7836203105007</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>116.553830827652</v>
+        <v>116.5538308276521</v>
       </c>
       <c r="F3" t="n">
-        <v>116.553830827652</v>
+        <v>116.5538308276521</v>
       </c>
       <c r="G3" t="n">
-        <v>116.553830827652</v>
+        <v>116.5538308276521</v>
       </c>
       <c r="H3" t="n">
-        <v>116.553830827652</v>
+        <v>116.5538308276521</v>
       </c>
       <c r="I3" t="n">
-        <v>116.553830827652</v>
+        <v>116.5538308276521</v>
       </c>
       <c r="J3" t="n">
-        <v>116.553830827652</v>
+        <v>116.5538308276521</v>
       </c>
       <c r="K3" t="n">
-        <v>116.553830827652</v>
+        <v>116.5538308276521</v>
       </c>
       <c r="L3" t="n">
-        <v>116.553830827652</v>
+        <v>116.5538308276521</v>
       </c>
       <c r="M3" t="n">
-        <v>116.553830827652</v>
+        <v>116.5538308276521</v>
       </c>
       <c r="N3" t="n">
         <v>116.553830827652</v>
       </c>
       <c r="O3" t="n">
-        <v>116.553830827652</v>
+        <v>116.5538308276521</v>
       </c>
       <c r="P3" t="n">
-        <v>116.553830827652</v>
+        <v>116.5538308276521</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>131.6224207170395</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="F4" t="n">
-        <v>131.6224207170395</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="G4" t="n">
-        <v>131.6224207170395</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="H4" t="n">
-        <v>131.6224207170395</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="I4" t="n">
-        <v>131.6224207170395</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="J4" t="n">
-        <v>486.590600974543</v>
+        <v>486.5906009745427</v>
       </c>
       <c r="K4" t="n">
-        <v>486.590600974543</v>
+        <v>486.5906009745427</v>
       </c>
       <c r="L4" t="n">
-        <v>486.590600974543</v>
+        <v>486.5906009745427</v>
       </c>
       <c r="M4" t="n">
-        <v>354.9681802575035</v>
+        <v>354.9681802575033</v>
       </c>
       <c r="N4" t="n">
-        <v>354.9681802575035</v>
+        <v>354.9681802575033</v>
       </c>
       <c r="O4" t="n">
-        <v>354.9681802575035</v>
+        <v>354.9681802575033</v>
       </c>
       <c r="P4" t="n">
-        <v>354.9681802575035</v>
+        <v>354.9681802575033</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>220.0642436627894</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>109.8527791573823</v>
+        <v>109.8527791573822</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>99.27548215570326</v>
+        <v>99.2754821557032</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="L2" t="n">
         <v>109.8527791573822</v>
       </c>
       <c r="M2" t="n">
-        <v>41.65535899741522</v>
+        <v>41.65535899741528</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>99.27548215570329</v>
+        <v>99.27548215570326</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>116.553830827652</v>
+        <v>116.5538308276521</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>131.6224207170395</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>354.9681802575035</v>
+        <v>354.9681802575033</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>220.0642436627894</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>109.8527791573823</v>
+        <v>109.8527791573822</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>99.27548215570326</v>
+        <v>99.2754821557032</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>131.6224207170395</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>220.0642436627894</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="C11" t="n">
-        <v>220.0642436627894</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="D11" t="n">
-        <v>220.0642436627894</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="E11" t="n">
-        <v>220.0642436627894</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="F11" t="n">
-        <v>220.0642436627894</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="G11" t="n">
-        <v>220.0642436627894</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="H11" t="n">
-        <v>220.0642436627894</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="I11" t="n">
-        <v>153.0249401179329</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="J11" t="n">
-        <v>220.0642436627894</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="K11" t="n">
         <v>119.2206547955826</v>
       </c>
       <c r="L11" t="n">
-        <v>117.6182276069952</v>
+        <v>157.3550283348399</v>
       </c>
       <c r="M11" t="n">
-        <v>220.0642436627894</v>
+        <v>104.8816095833261</v>
       </c>
       <c r="N11" t="n">
-        <v>102.7921185173356</v>
+        <v>102.7921185173355</v>
       </c>
       <c r="O11" t="n">
-        <v>220.0642436627894</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="P11" t="n">
-        <v>181.978705639383</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="Q11" t="n">
-        <v>130.0243680027305</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="R11" t="n">
-        <v>220.0642436627894</v>
+        <v>145.7301858529673</v>
       </c>
       <c r="S11" t="n">
-        <v>220.0642436627894</v>
+        <v>174.6794175959089</v>
       </c>
       <c r="T11" t="n">
-        <v>220.0642436627894</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="U11" t="n">
-        <v>220.0642436627894</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="V11" t="n">
-        <v>220.0642436627894</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="W11" t="n">
-        <v>220.0642436627894</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="X11" t="n">
-        <v>220.0642436627894</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="Y11" t="n">
-        <v>220.0642436627894</v>
+        <v>220.0642436627892</v>
       </c>
     </row>
     <row r="12">
@@ -28190,28 +28190,28 @@
         <v>72.23035288210313</v>
       </c>
       <c r="J12" t="n">
-        <v>79.36985402649262</v>
+        <v>79.3698540264926</v>
       </c>
       <c r="K12" t="n">
-        <v>96.90467854487744</v>
+        <v>71.51350511400945</v>
       </c>
       <c r="L12" t="n">
-        <v>58.14149588130897</v>
+        <v>58.14149588130896</v>
       </c>
       <c r="M12" t="n">
-        <v>51.96206476056955</v>
+        <v>77.3532381914378</v>
       </c>
       <c r="N12" t="n">
-        <v>41.51206923517117</v>
+        <v>41.51206923517114</v>
       </c>
       <c r="O12" t="n">
-        <v>56.21137633839753</v>
+        <v>56.21137633839751</v>
       </c>
       <c r="P12" t="n">
-        <v>60.98136935834791</v>
+        <v>60.98136935834789</v>
       </c>
       <c r="Q12" t="n">
-        <v>81.73346793160962</v>
+        <v>81.7334679316096</v>
       </c>
       <c r="R12" t="n">
         <v>102.7991627330203</v>
@@ -28226,10 +28226,10 @@
         <v>216.2933510110464</v>
       </c>
       <c r="V12" t="n">
-        <v>220.0642436627894</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="W12" t="n">
-        <v>220.0642436627894</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="X12" t="n">
         <v>195.9378182409833</v>
@@ -28254,7 +28254,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E13" t="n">
-        <v>206.9059980825234</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="F13" t="n">
         <v>150.9558484244806</v>
@@ -28269,22 +28269,22 @@
         <v>136.4403570291208</v>
       </c>
       <c r="J13" t="n">
-        <v>88.32412184825279</v>
+        <v>88.32412184825277</v>
       </c>
       <c r="K13" t="n">
         <v>80.40428934589781</v>
       </c>
       <c r="L13" t="n">
-        <v>78.34590850546641</v>
+        <v>78.3459085054664</v>
       </c>
       <c r="M13" t="n">
-        <v>79.93067970396675</v>
+        <v>198.3948548407411</v>
       </c>
       <c r="N13" t="n">
-        <v>203.203800442224</v>
+        <v>71.58137972518445</v>
       </c>
       <c r="O13" t="n">
-        <v>82.78808566083811</v>
+        <v>82.78808566083809</v>
       </c>
       <c r="P13" t="n">
         <v>86.48380385827534</v>
@@ -28299,19 +28299,19 @@
         <v>207.9098175327</v>
       </c>
       <c r="T13" t="n">
-        <v>220.0642436627894</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="U13" t="n">
-        <v>220.0642436627894</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="V13" t="n">
-        <v>220.0642436627894</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="W13" t="n">
-        <v>220.0642436627894</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="X13" t="n">
-        <v>220.0642436627894</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="Y13" t="n">
         <v>219.8148072196457</v>
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627893</v>
       </c>
       <c r="C14" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627893</v>
       </c>
       <c r="D14" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627893</v>
       </c>
       <c r="E14" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627893</v>
       </c>
       <c r="F14" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627893</v>
       </c>
       <c r="G14" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627893</v>
       </c>
       <c r="H14" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627893</v>
       </c>
       <c r="I14" t="n">
         <v>153.0249401179329</v>
       </c>
       <c r="J14" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627893</v>
       </c>
       <c r="K14" t="n">
         <v>119.2206547955826</v>
       </c>
       <c r="L14" t="n">
-        <v>220.0642436627892</v>
+        <v>208.7783748854529</v>
       </c>
       <c r="M14" t="n">
-        <v>104.8816095833261</v>
+        <v>220.0642436627893</v>
       </c>
       <c r="N14" t="n">
-        <v>102.7921185173356</v>
+        <v>102.7921185173355</v>
       </c>
       <c r="O14" t="n">
-        <v>179.009505812816</v>
+        <v>220.0642436627893</v>
       </c>
       <c r="P14" t="n">
-        <v>220.0642436627892</v>
+        <v>120.497566577569</v>
       </c>
       <c r="Q14" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627893</v>
       </c>
       <c r="R14" t="n">
         <v>145.7301858529673</v>
       </c>
       <c r="S14" t="n">
-        <v>220.0642436627892</v>
+        <v>174.6794175959089</v>
       </c>
       <c r="T14" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627893</v>
       </c>
       <c r="U14" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627893</v>
       </c>
       <c r="V14" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627893</v>
       </c>
       <c r="W14" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627893</v>
       </c>
       <c r="X14" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627893</v>
       </c>
       <c r="Y14" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627893</v>
       </c>
     </row>
     <row r="15">
@@ -28409,7 +28409,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
-        <v>137.45025063969</v>
+        <v>162.8414240705581</v>
       </c>
       <c r="E15" t="n">
         <v>145.5577298436975</v>
@@ -28427,28 +28427,28 @@
         <v>72.23035288210313</v>
       </c>
       <c r="J15" t="n">
-        <v>79.36985402649262</v>
+        <v>79.3698540264926</v>
       </c>
       <c r="K15" t="n">
-        <v>71.51350511400946</v>
+        <v>71.51350511400945</v>
       </c>
       <c r="L15" t="n">
-        <v>83.53266931217725</v>
+        <v>58.14149588130896</v>
       </c>
       <c r="M15" t="n">
-        <v>51.96206476056955</v>
+        <v>51.96206476056953</v>
       </c>
       <c r="N15" t="n">
-        <v>41.51206923517117</v>
+        <v>41.51206923517114</v>
       </c>
       <c r="O15" t="n">
-        <v>56.21137633839753</v>
+        <v>56.21137633839751</v>
       </c>
       <c r="P15" t="n">
-        <v>60.98136935834791</v>
+        <v>60.98136935834789</v>
       </c>
       <c r="Q15" t="n">
-        <v>81.73346793160962</v>
+        <v>81.7334679316096</v>
       </c>
       <c r="R15" t="n">
         <v>102.7991627330203</v>
@@ -28463,10 +28463,10 @@
         <v>216.2933510110464</v>
       </c>
       <c r="V15" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627893</v>
       </c>
       <c r="W15" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627893</v>
       </c>
       <c r="X15" t="n">
         <v>195.9378182409833</v>
@@ -28491,7 +28491,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E16" t="n">
-        <v>206.9059980825241</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F16" t="n">
         <v>150.9558484244806</v>
@@ -28506,22 +28506,22 @@
         <v>136.4403570291208</v>
       </c>
       <c r="J16" t="n">
-        <v>88.32412184825279</v>
+        <v>88.32412184825277</v>
       </c>
       <c r="K16" t="n">
         <v>80.40428934589781</v>
       </c>
       <c r="L16" t="n">
-        <v>78.34590850546641</v>
+        <v>78.3459085054664</v>
       </c>
       <c r="M16" t="n">
         <v>211.5531004210062</v>
       </c>
       <c r="N16" t="n">
-        <v>71.58137972518446</v>
+        <v>71.58137972518445</v>
       </c>
       <c r="O16" t="n">
-        <v>82.78808566083811</v>
+        <v>82.78808566083809</v>
       </c>
       <c r="P16" t="n">
         <v>86.48380385827534</v>
@@ -28530,25 +28530,25 @@
         <v>105.4981853689493</v>
       </c>
       <c r="R16" t="n">
-        <v>138.576149682035</v>
+        <v>194.9932236682643</v>
       </c>
       <c r="S16" t="n">
         <v>207.9098175327</v>
       </c>
       <c r="T16" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627893</v>
       </c>
       <c r="U16" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627893</v>
       </c>
       <c r="V16" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627893</v>
       </c>
       <c r="W16" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627893</v>
       </c>
       <c r="X16" t="n">
-        <v>220.0642436627892</v>
+        <v>220.0642436627893</v>
       </c>
       <c r="Y16" t="n">
         <v>219.8148072196457</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>329.9170228201716</v>
+        <v>329.9170228201715</v>
       </c>
       <c r="C17" t="n">
-        <v>329.9170228201716</v>
+        <v>329.9170228201715</v>
       </c>
       <c r="D17" t="n">
-        <v>329.9170228201716</v>
+        <v>329.9170228201715</v>
       </c>
       <c r="E17" t="n">
-        <v>329.9170228201716</v>
+        <v>329.9170228201715</v>
       </c>
       <c r="F17" t="n">
-        <v>329.9170228201716</v>
+        <v>329.9170228201715</v>
       </c>
       <c r="G17" t="n">
-        <v>329.9170228201716</v>
+        <v>329.9170228201715</v>
       </c>
       <c r="H17" t="n">
-        <v>329.9170228201716</v>
+        <v>329.9170228201715</v>
       </c>
       <c r="I17" t="n">
         <v>153.0249401179329</v>
@@ -28591,10 +28591,10 @@
         <v>119.2206547955826</v>
       </c>
       <c r="L17" t="n">
-        <v>161.0819642278884</v>
+        <v>238.6999887740244</v>
       </c>
       <c r="M17" t="n">
-        <v>236.5040303003656</v>
+        <v>236.5040303003655</v>
       </c>
       <c r="N17" t="n">
         <v>234.414539234375</v>
@@ -28606,10 +28606,10 @@
         <v>120.497566577569</v>
       </c>
       <c r="Q17" t="n">
-        <v>261.64678871977</v>
+        <v>130.0243680027305</v>
       </c>
       <c r="R17" t="n">
-        <v>145.7301858529673</v>
+        <v>277.3526065700067</v>
       </c>
       <c r="S17" t="n">
         <v>174.6794175959089</v>
@@ -28618,19 +28618,19 @@
         <v>220.0642436627892</v>
       </c>
       <c r="U17" t="n">
-        <v>329.9170228201716</v>
+        <v>252.2989982740355</v>
       </c>
       <c r="V17" t="n">
-        <v>329.9170228201716</v>
+        <v>329.9170228201715</v>
       </c>
       <c r="W17" t="n">
-        <v>329.9170228201716</v>
+        <v>329.9170228201715</v>
       </c>
       <c r="X17" t="n">
-        <v>329.9170228201716</v>
+        <v>329.9170228201715</v>
       </c>
       <c r="Y17" t="n">
-        <v>329.9170228201716</v>
+        <v>329.9170228201715</v>
       </c>
     </row>
     <row r="18">
@@ -28664,28 +28664,28 @@
         <v>72.23035288210313</v>
       </c>
       <c r="J18" t="n">
-        <v>79.36985402649262</v>
+        <v>79.3698540264926</v>
       </c>
       <c r="K18" t="n">
-        <v>71.51350511400946</v>
+        <v>71.51350511400945</v>
       </c>
       <c r="L18" t="n">
-        <v>58.14149588130897</v>
+        <v>58.14149588130896</v>
       </c>
       <c r="M18" t="n">
-        <v>51.96206476056955</v>
+        <v>51.96206476056953</v>
       </c>
       <c r="N18" t="n">
-        <v>41.51206923517117</v>
+        <v>41.51206923517114</v>
       </c>
       <c r="O18" t="n">
-        <v>56.21137633839753</v>
+        <v>56.21137633839751</v>
       </c>
       <c r="P18" t="n">
-        <v>60.98136935834791</v>
+        <v>60.98136935834789</v>
       </c>
       <c r="Q18" t="n">
-        <v>81.73346793160962</v>
+        <v>81.7334679316096</v>
       </c>
       <c r="R18" t="n">
         <v>102.7991627330203</v>
@@ -28743,22 +28743,22 @@
         <v>136.4403570291208</v>
       </c>
       <c r="J19" t="n">
-        <v>88.32412184825279</v>
+        <v>88.32412184825277</v>
       </c>
       <c r="K19" t="n">
         <v>80.40428934589781</v>
       </c>
       <c r="L19" t="n">
-        <v>78.34590850546641</v>
+        <v>78.3459085054664</v>
       </c>
       <c r="M19" t="n">
         <v>79.93067970396675</v>
       </c>
       <c r="N19" t="n">
-        <v>71.58137972518446</v>
+        <v>71.58137972518445</v>
       </c>
       <c r="O19" t="n">
-        <v>82.78808566083811</v>
+        <v>82.78808566083809</v>
       </c>
       <c r="P19" t="n">
         <v>86.48380385827534</v>
@@ -28816,43 +28816,43 @@
         <v>329.9170228201716</v>
       </c>
       <c r="H20" t="n">
-        <v>329.9170228201716</v>
+        <v>324.6944408748902</v>
       </c>
       <c r="I20" t="n">
-        <v>153.0249401179329</v>
+        <v>279.3292832302435</v>
       </c>
       <c r="J20" t="n">
-        <v>238.9539339270488</v>
+        <v>107.3315132100093</v>
       </c>
       <c r="K20" t="n">
         <v>119.2206547955826</v>
       </c>
       <c r="L20" t="n">
-        <v>249.2406483240347</v>
+        <v>117.6182276069952</v>
       </c>
       <c r="M20" t="n">
-        <v>104.8816095833261</v>
+        <v>236.5040303003655</v>
       </c>
       <c r="N20" t="n">
-        <v>114.0211005269824</v>
+        <v>102.7921185173355</v>
       </c>
       <c r="O20" t="n">
         <v>108.0080258701202</v>
       </c>
       <c r="P20" t="n">
-        <v>252.1199872946084</v>
+        <v>120.497566577569</v>
       </c>
       <c r="Q20" t="n">
-        <v>130.0243680027305</v>
+        <v>261.6467887197699</v>
       </c>
       <c r="R20" t="n">
         <v>145.7301858529673</v>
       </c>
       <c r="S20" t="n">
-        <v>174.6794175959089</v>
+        <v>306.3018383129483</v>
       </c>
       <c r="T20" t="n">
-        <v>329.9170228201716</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="U20" t="n">
         <v>252.2989982740355</v>
@@ -28901,28 +28901,28 @@
         <v>72.23035288210313</v>
       </c>
       <c r="J21" t="n">
-        <v>79.36985402649262</v>
+        <v>79.3698540264926</v>
       </c>
       <c r="K21" t="n">
-        <v>71.51350511400946</v>
+        <v>71.51350511400945</v>
       </c>
       <c r="L21" t="n">
-        <v>58.14149588130897</v>
+        <v>58.14149588130896</v>
       </c>
       <c r="M21" t="n">
-        <v>51.96206476056955</v>
+        <v>51.96206476056953</v>
       </c>
       <c r="N21" t="n">
-        <v>41.51206923517117</v>
+        <v>41.51206923517114</v>
       </c>
       <c r="O21" t="n">
-        <v>56.21137633839753</v>
+        <v>56.21137633839751</v>
       </c>
       <c r="P21" t="n">
-        <v>60.98136935834791</v>
+        <v>60.98136935834789</v>
       </c>
       <c r="Q21" t="n">
-        <v>81.73346793160962</v>
+        <v>81.7334679316096</v>
       </c>
       <c r="R21" t="n">
         <v>102.7991627330203</v>
@@ -28980,22 +28980,22 @@
         <v>136.4403570291208</v>
       </c>
       <c r="J22" t="n">
-        <v>88.32412184825279</v>
+        <v>88.32412184825277</v>
       </c>
       <c r="K22" t="n">
         <v>80.40428934589781</v>
       </c>
       <c r="L22" t="n">
-        <v>78.34590850546641</v>
+        <v>78.3459085054664</v>
       </c>
       <c r="M22" t="n">
         <v>79.93067970396675</v>
       </c>
       <c r="N22" t="n">
-        <v>71.58137972518446</v>
+        <v>71.58137972518445</v>
       </c>
       <c r="O22" t="n">
-        <v>82.78808566083811</v>
+        <v>82.78808566083809</v>
       </c>
       <c r="P22" t="n">
         <v>86.48380385827534</v>
@@ -29053,46 +29053,46 @@
         <v>329.9170228201716</v>
       </c>
       <c r="H23" t="n">
-        <v>324.6944408748902</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="I23" t="n">
-        <v>153.0249401179329</v>
+        <v>284.6473608349723</v>
       </c>
       <c r="J23" t="n">
-        <v>107.3315132100093</v>
+        <v>238.9539339270487</v>
       </c>
       <c r="K23" t="n">
         <v>119.2206547955826</v>
       </c>
       <c r="L23" t="n">
-        <v>249.2406483240347</v>
+        <v>117.6182276069952</v>
       </c>
       <c r="M23" t="n">
-        <v>236.5040303003656</v>
+        <v>104.8816095833261</v>
       </c>
       <c r="N23" t="n">
-        <v>234.414539234375</v>
+        <v>102.7921185173355</v>
       </c>
       <c r="O23" t="n">
-        <v>108.0080258701202</v>
+        <v>239.6304465871596</v>
       </c>
       <c r="P23" t="n">
         <v>120.497566577569</v>
       </c>
       <c r="Q23" t="n">
-        <v>256.328711115041</v>
+        <v>130.0243680027305</v>
       </c>
       <c r="R23" t="n">
         <v>145.7301858529673</v>
       </c>
       <c r="S23" t="n">
-        <v>174.6794175959089</v>
+        <v>218.1431542168021</v>
       </c>
       <c r="T23" t="n">
         <v>220.0642436627892</v>
       </c>
       <c r="U23" t="n">
-        <v>252.2989982740355</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="V23" t="n">
         <v>329.9170228201716</v>
@@ -29138,28 +29138,28 @@
         <v>72.23035288210313</v>
       </c>
       <c r="J24" t="n">
-        <v>79.36985402649262</v>
+        <v>79.3698540264926</v>
       </c>
       <c r="K24" t="n">
-        <v>71.51350511400946</v>
+        <v>71.51350511400945</v>
       </c>
       <c r="L24" t="n">
-        <v>58.14149588130897</v>
+        <v>58.14149588130896</v>
       </c>
       <c r="M24" t="n">
-        <v>51.96206476056955</v>
+        <v>51.96206476056953</v>
       </c>
       <c r="N24" t="n">
-        <v>41.51206923517117</v>
+        <v>41.51206923517114</v>
       </c>
       <c r="O24" t="n">
-        <v>56.21137633839753</v>
+        <v>56.21137633839751</v>
       </c>
       <c r="P24" t="n">
-        <v>60.98136935834791</v>
+        <v>60.98136935834789</v>
       </c>
       <c r="Q24" t="n">
-        <v>81.73346793160962</v>
+        <v>81.7334679316096</v>
       </c>
       <c r="R24" t="n">
         <v>102.7991627330203</v>
@@ -29217,22 +29217,22 @@
         <v>136.4403570291208</v>
       </c>
       <c r="J25" t="n">
-        <v>88.32412184825279</v>
+        <v>88.32412184825277</v>
       </c>
       <c r="K25" t="n">
         <v>80.40428934589781</v>
       </c>
       <c r="L25" t="n">
-        <v>78.34590850546641</v>
+        <v>78.3459085054664</v>
       </c>
       <c r="M25" t="n">
         <v>79.93067970396675</v>
       </c>
       <c r="N25" t="n">
-        <v>71.58137972518446</v>
+        <v>71.58137972518445</v>
       </c>
       <c r="O25" t="n">
-        <v>82.78808566083811</v>
+        <v>82.78808566083809</v>
       </c>
       <c r="P25" t="n">
         <v>86.48380385827534</v>
@@ -29293,37 +29293,37 @@
         <v>209.1282613130855</v>
       </c>
       <c r="I26" t="n">
-        <v>153.0249401179329</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="J26" t="n">
         <v>209.1282613130855</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="L26" t="n">
         <v>209.1282613130855</v>
       </c>
       <c r="M26" t="n">
-        <v>209.1282613130855</v>
+        <v>158.8619633407018</v>
       </c>
       <c r="N26" t="n">
         <v>209.1282613130855</v>
       </c>
       <c r="O26" t="n">
-        <v>209.1282613130855</v>
+        <v>110.757941764661</v>
       </c>
       <c r="P26" t="n">
-        <v>209.1282613130855</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>209.1282613130855</v>
       </c>
       <c r="R26" t="n">
-        <v>144.5655936276044</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="S26" t="n">
-        <v>174.6794175959089</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="T26" t="n">
         <v>209.1282613130855</v>
@@ -29375,34 +29375,34 @@
         <v>72.23035288210313</v>
       </c>
       <c r="J27" t="n">
-        <v>79.36985402649262</v>
+        <v>79.3698540264926</v>
       </c>
       <c r="K27" t="n">
-        <v>71.51350511400946</v>
+        <v>71.51350511400945</v>
       </c>
       <c r="L27" t="n">
-        <v>58.14149588130897</v>
+        <v>58.14149588130896</v>
       </c>
       <c r="M27" t="n">
-        <v>51.96206476056955</v>
+        <v>51.96206476056953</v>
       </c>
       <c r="N27" t="n">
-        <v>41.51206923517117</v>
+        <v>41.51206923517114</v>
       </c>
       <c r="O27" t="n">
-        <v>56.21137633839753</v>
+        <v>56.21137633839751</v>
       </c>
       <c r="P27" t="n">
-        <v>115.9991670085493</v>
+        <v>60.98136935834789</v>
       </c>
       <c r="Q27" t="n">
-        <v>81.73346793160962</v>
+        <v>81.7334679316096</v>
       </c>
       <c r="R27" t="n">
         <v>102.7991627330203</v>
       </c>
       <c r="S27" t="n">
-        <v>146.6148367064899</v>
+        <v>201.632634356691</v>
       </c>
       <c r="T27" t="n">
         <v>185.7877530736877</v>
@@ -29454,34 +29454,34 @@
         <v>136.4403570291208</v>
       </c>
       <c r="J28" t="n">
-        <v>88.32412184825279</v>
+        <v>88.32412184825277</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>80.40428934589781</v>
       </c>
       <c r="L28" t="n">
-        <v>78.34590850546641</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="M28" t="n">
+        <v>79.93067970396675</v>
+      </c>
+      <c r="N28" t="n">
+        <v>71.58137972518445</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
         <v>209.1282613130855</v>
-      </c>
-      <c r="N28" t="n">
-        <v>71.58137972518446</v>
-      </c>
-      <c r="O28" t="n">
-        <v>208.323660274302</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>105.4981853689493</v>
       </c>
       <c r="R28" t="n">
         <v>138.576149682035</v>
       </c>
       <c r="S28" t="n">
-        <v>207.9098175327</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="T28" t="n">
         <v>209.1282613130855</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="C29" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="D29" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="E29" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="F29" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="G29" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="H29" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="I29" t="n">
-        <v>209.1282613130856</v>
+        <v>153.0249401179329</v>
       </c>
       <c r="J29" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="K29" t="n">
-        <v>209.1282613130856</v>
+        <v>135.2005622522403</v>
       </c>
       <c r="L29" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="M29" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="N29" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="O29" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="Q29" t="n">
-        <v>181.3962323663723</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="R29" t="n">
-        <v>209.1282613130856</v>
+        <v>60.2988400180901</v>
       </c>
       <c r="S29" t="n">
-        <v>209.1282613130856</v>
+        <v>174.6794175959089</v>
       </c>
       <c r="T29" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="U29" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="V29" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="W29" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="X29" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="Y29" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
     </row>
     <row r="30">
@@ -29606,52 +29606,52 @@
         <v>127.1905142842246</v>
       </c>
       <c r="H30" t="n">
-        <v>151.5350356281918</v>
+        <v>96.51723797799073</v>
       </c>
       <c r="I30" t="n">
         <v>72.23035288210313</v>
       </c>
       <c r="J30" t="n">
-        <v>79.36985402649262</v>
+        <v>79.3698540264926</v>
       </c>
       <c r="K30" t="n">
-        <v>71.51350511400946</v>
+        <v>71.51350511400945</v>
       </c>
       <c r="L30" t="n">
-        <v>58.14149588130897</v>
+        <v>58.14149588130896</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>51.96206476056953</v>
       </c>
       <c r="N30" t="n">
-        <v>41.51206923517117</v>
+        <v>41.51206923517114</v>
       </c>
       <c r="O30" t="n">
-        <v>56.21137633839753</v>
+        <v>56.21137633839751</v>
       </c>
       <c r="P30" t="n">
-        <v>60.98136935834791</v>
+        <v>60.98136935834789</v>
       </c>
       <c r="Q30" t="n">
-        <v>81.73346793160962</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>102.7991627330203</v>
       </c>
       <c r="S30" t="n">
-        <v>146.6148367064899</v>
+        <v>201.632634356691</v>
       </c>
       <c r="T30" t="n">
         <v>185.7877530736877</v>
       </c>
       <c r="U30" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="V30" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="W30" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="X30" t="n">
         <v>195.9378182409833</v>
@@ -29676,67 +29676,67 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E31" t="n">
-        <v>209.1282613130856</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F31" t="n">
-        <v>209.1282613130856</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
-        <v>209.1282613130856</v>
+        <v>167.0203721066311</v>
       </c>
       <c r="H31" t="n">
-        <v>155.9102360382002</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="I31" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J31" t="n">
-        <v>88.32412184825279</v>
+        <v>44.59700812871245</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>80.40428934589781</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>78.3459085054664</v>
       </c>
       <c r="M31" t="n">
         <v>79.93067970396675</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="O31" t="n">
-        <v>82.78808566083811</v>
+        <v>82.78808566083809</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>86.48380385827534</v>
       </c>
       <c r="Q31" t="n">
-        <v>20.5523394778724</v>
+        <v>20.55233947787239</v>
       </c>
       <c r="R31" t="n">
         <v>138.576149682035</v>
       </c>
       <c r="S31" t="n">
-        <v>207.9098175327</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="T31" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="U31" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="V31" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="W31" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="X31" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="Y31" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
     </row>
     <row r="32">
@@ -29770,16 +29770,16 @@
         <v>209.1282613130855</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="K32" t="n">
         <v>209.1282613130855</v>
       </c>
       <c r="L32" t="n">
-        <v>117.6182276069952</v>
+        <v>68.47768161849093</v>
       </c>
       <c r="M32" t="n">
-        <v>209.1282613130855</v>
+        <v>104.8816095833261</v>
       </c>
       <c r="N32" t="n">
         <v>209.1282613130855</v>
@@ -29788,16 +29788,16 @@
         <v>209.1282613130855</v>
       </c>
       <c r="P32" t="n">
-        <v>188.7498469291845</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="Q32" t="n">
-        <v>209.1282613130855</v>
+        <v>130.0243680027305</v>
       </c>
       <c r="R32" t="n">
         <v>209.1282613130855</v>
       </c>
       <c r="S32" t="n">
-        <v>174.6794175959089</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="T32" t="n">
         <v>209.1282613130855</v>
@@ -29837,7 +29837,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F33" t="n">
-        <v>133.3468600696244</v>
+        <v>188.3646577198256</v>
       </c>
       <c r="G33" t="n">
         <v>127.1905142842246</v>
@@ -29846,31 +29846,31 @@
         <v>96.51723797799073</v>
       </c>
       <c r="I33" t="n">
-        <v>72.23035288210313</v>
+        <v>59.06688158894273</v>
       </c>
       <c r="J33" t="n">
-        <v>33.69526343305241</v>
+        <v>79.3698540264926</v>
       </c>
       <c r="K33" t="n">
-        <v>71.51350511400946</v>
+        <v>71.51350511400945</v>
       </c>
       <c r="L33" t="n">
-        <v>58.14149588130897</v>
+        <v>58.14149588130896</v>
       </c>
       <c r="M33" t="n">
-        <v>51.96206476056955</v>
+        <v>51.96206476056953</v>
       </c>
       <c r="N33" t="n">
-        <v>41.51206923517117</v>
+        <v>41.51206923517114</v>
       </c>
       <c r="O33" t="n">
-        <v>56.21137633839753</v>
+        <v>56.21137633839751</v>
       </c>
       <c r="P33" t="n">
-        <v>60.98136935834791</v>
+        <v>60.98136935834789</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.751265581811</v>
+        <v>81.7334679316096</v>
       </c>
       <c r="R33" t="n">
         <v>102.7991627330203</v>
@@ -29922,19 +29922,19 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H34" t="n">
-        <v>209.1282613130855</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I34" t="n">
-        <v>209.1282613130855</v>
+        <v>136.4403570291208</v>
       </c>
       <c r="J34" t="n">
-        <v>44.59700812871245</v>
+        <v>88.32412184825277</v>
       </c>
       <c r="K34" t="n">
-        <v>86.58705855482029</v>
+        <v>80.40428934589781</v>
       </c>
       <c r="L34" t="n">
-        <v>78.34590850546641</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>79.93067970396675</v>
@@ -29943,10 +29943,10 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>82.78808566083811</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="P34" t="n">
-        <v>209.1282613130855</v>
+        <v>86.48380385827534</v>
       </c>
       <c r="Q34" t="n">
         <v>105.4981853689493</v>
@@ -29955,7 +29955,7 @@
         <v>138.576149682035</v>
       </c>
       <c r="S34" t="n">
-        <v>207.9098175327</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="T34" t="n">
         <v>209.1282613130855</v>
@@ -30086,28 +30086,28 @@
         <v>72.23035288210313</v>
       </c>
       <c r="J36" t="n">
-        <v>79.36985402649262</v>
+        <v>79.3698540264926</v>
       </c>
       <c r="K36" t="n">
-        <v>71.51350511400946</v>
+        <v>71.51350511400945</v>
       </c>
       <c r="L36" t="n">
-        <v>58.14149588130897</v>
+        <v>58.14149588130896</v>
       </c>
       <c r="M36" t="n">
-        <v>51.96206476056955</v>
+        <v>51.96206476056953</v>
       </c>
       <c r="N36" t="n">
-        <v>41.51206923517117</v>
+        <v>41.51206923517114</v>
       </c>
       <c r="O36" t="n">
-        <v>56.21137633839753</v>
+        <v>56.21137633839751</v>
       </c>
       <c r="P36" t="n">
-        <v>60.98136935834791</v>
+        <v>60.98136935834789</v>
       </c>
       <c r="Q36" t="n">
-        <v>81.73346793160962</v>
+        <v>81.7334679316096</v>
       </c>
       <c r="R36" t="n">
         <v>102.7991627330203</v>
@@ -30165,25 +30165,25 @@
         <v>136.4403570291208</v>
       </c>
       <c r="J37" t="n">
-        <v>88.32412184825279</v>
+        <v>88.32412184825277</v>
       </c>
       <c r="K37" t="n">
         <v>80.40428934589781</v>
       </c>
       <c r="L37" t="n">
-        <v>78.34590850546641</v>
+        <v>78.3459085054664</v>
       </c>
       <c r="M37" t="n">
-        <v>79.93067970396675</v>
+        <v>111.9255645478336</v>
       </c>
       <c r="N37" t="n">
-        <v>71.58137972518446</v>
+        <v>71.58137972518445</v>
       </c>
       <c r="O37" t="n">
-        <v>82.78808566083811</v>
+        <v>82.78808566083809</v>
       </c>
       <c r="P37" t="n">
-        <v>161.3524914799431</v>
+        <v>86.48380385827534</v>
       </c>
       <c r="Q37" t="n">
         <v>105.4981853689493</v>
@@ -30192,7 +30192,7 @@
         <v>138.576149682035</v>
       </c>
       <c r="S37" t="n">
-        <v>207.9098175327</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="T37" t="n">
         <v>229.9491259395436</v>
@@ -30326,22 +30326,22 @@
         <v>79.36985402649262</v>
       </c>
       <c r="K39" t="n">
-        <v>71.51350511400946</v>
+        <v>71.51350511400949</v>
       </c>
       <c r="L39" t="n">
-        <v>58.14149588130897</v>
+        <v>58.141495881309</v>
       </c>
       <c r="M39" t="n">
-        <v>51.96206476056955</v>
+        <v>51.96206476056958</v>
       </c>
       <c r="N39" t="n">
-        <v>41.51206923517117</v>
+        <v>41.5120692351712</v>
       </c>
       <c r="O39" t="n">
-        <v>56.21137633839753</v>
+        <v>56.21137633839756</v>
       </c>
       <c r="P39" t="n">
-        <v>60.98136935834791</v>
+        <v>60.98136935834793</v>
       </c>
       <c r="Q39" t="n">
         <v>81.73346793160962</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>250.7836203105007</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
         <v>167.9198098429365</v>
@@ -30387,7 +30387,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>156.2938064049974</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
@@ -30399,28 +30399,28 @@
         <v>155.9102360382002</v>
       </c>
       <c r="I40" t="n">
-        <v>136.4403570291208</v>
+        <v>168.4352418729877</v>
       </c>
       <c r="J40" t="n">
         <v>88.32412184825279</v>
       </c>
       <c r="K40" t="n">
-        <v>80.40428934589781</v>
+        <v>80.40428934589782</v>
       </c>
       <c r="L40" t="n">
-        <v>78.34590850546641</v>
+        <v>78.34590850546643</v>
       </c>
       <c r="M40" t="n">
-        <v>79.93067970396675</v>
+        <v>79.93067970396677</v>
       </c>
       <c r="N40" t="n">
-        <v>71.58137972518446</v>
+        <v>71.58137972518448</v>
       </c>
       <c r="O40" t="n">
         <v>82.78808566083811</v>
       </c>
       <c r="P40" t="n">
-        <v>86.48380385827534</v>
+        <v>86.48380385827535</v>
       </c>
       <c r="Q40" t="n">
         <v>105.4981853689493</v>
@@ -30429,7 +30429,7 @@
         <v>138.576149682035</v>
       </c>
       <c r="S40" t="n">
-        <v>207.9098175327</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="T40" t="n">
         <v>229.9491259395436</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105008</v>
       </c>
       <c r="C41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105008</v>
       </c>
       <c r="D41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105008</v>
       </c>
       <c r="E41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105008</v>
       </c>
       <c r="F41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105008</v>
       </c>
       <c r="G41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105008</v>
       </c>
       <c r="H41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105008</v>
       </c>
       <c r="I41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105008</v>
       </c>
       <c r="J41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105008</v>
       </c>
       <c r="K41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105008</v>
       </c>
       <c r="L41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105008</v>
       </c>
       <c r="M41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105008</v>
       </c>
       <c r="N41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105008</v>
       </c>
       <c r="O41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105008</v>
       </c>
       <c r="P41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105008</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105008</v>
       </c>
       <c r="R41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105008</v>
       </c>
       <c r="S41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105008</v>
       </c>
       <c r="T41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105008</v>
       </c>
       <c r="U41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105008</v>
       </c>
       <c r="V41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105008</v>
       </c>
       <c r="W41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105008</v>
       </c>
       <c r="X41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105008</v>
       </c>
       <c r="Y41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105008</v>
       </c>
     </row>
     <row r="42">
@@ -30560,28 +30560,28 @@
         <v>72.23035288210313</v>
       </c>
       <c r="J42" t="n">
-        <v>79.36985402649262</v>
+        <v>79.3698540264926</v>
       </c>
       <c r="K42" t="n">
-        <v>71.51350511400946</v>
+        <v>71.51350511400945</v>
       </c>
       <c r="L42" t="n">
-        <v>58.14149588130897</v>
+        <v>58.14149588130896</v>
       </c>
       <c r="M42" t="n">
-        <v>51.96206476056955</v>
+        <v>51.96206476056953</v>
       </c>
       <c r="N42" t="n">
-        <v>41.51206923517117</v>
+        <v>41.51206923517114</v>
       </c>
       <c r="O42" t="n">
-        <v>56.21137633839753</v>
+        <v>56.21137633839751</v>
       </c>
       <c r="P42" t="n">
-        <v>60.98136935834791</v>
+        <v>60.98136935834789</v>
       </c>
       <c r="Q42" t="n">
-        <v>81.73346793160962</v>
+        <v>81.7334679316096</v>
       </c>
       <c r="R42" t="n">
         <v>102.7991627330203</v>
@@ -30633,34 +30633,34 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H43" t="n">
-        <v>230.7789236598678</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I43" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J43" t="n">
-        <v>88.32412184825279</v>
+        <v>88.32412184825277</v>
       </c>
       <c r="K43" t="n">
         <v>80.40428934589781</v>
       </c>
       <c r="L43" t="n">
-        <v>78.34590850546641</v>
+        <v>78.3459085054664</v>
       </c>
       <c r="M43" t="n">
         <v>79.93067970396675</v>
       </c>
       <c r="N43" t="n">
-        <v>71.58137972518446</v>
+        <v>71.58137972518445</v>
       </c>
       <c r="O43" t="n">
-        <v>82.78808566083811</v>
+        <v>82.78808566083809</v>
       </c>
       <c r="P43" t="n">
         <v>86.48380385827534</v>
       </c>
       <c r="Q43" t="n">
-        <v>105.4981853689493</v>
+        <v>159.5323786196595</v>
       </c>
       <c r="R43" t="n">
         <v>138.576149682035</v>
@@ -30669,16 +30669,16 @@
         <v>207.9098175327</v>
       </c>
       <c r="T43" t="n">
-        <v>229.9491259395436</v>
+        <v>250.7836203105008</v>
       </c>
       <c r="U43" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105008</v>
       </c>
       <c r="V43" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105008</v>
       </c>
       <c r="W43" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105008</v>
       </c>
       <c r="X43" t="n">
         <v>228.939939463578</v>
@@ -30797,28 +30797,28 @@
         <v>72.23035288210313</v>
       </c>
       <c r="J45" t="n">
-        <v>79.36985402649262</v>
+        <v>79.3698540264926</v>
       </c>
       <c r="K45" t="n">
-        <v>71.51350511400946</v>
+        <v>71.51350511400945</v>
       </c>
       <c r="L45" t="n">
-        <v>58.14149588130897</v>
+        <v>58.14149588130896</v>
       </c>
       <c r="M45" t="n">
-        <v>51.96206476056955</v>
+        <v>51.96206476056953</v>
       </c>
       <c r="N45" t="n">
-        <v>41.51206923517117</v>
+        <v>41.51206923517114</v>
       </c>
       <c r="O45" t="n">
-        <v>56.21137633839753</v>
+        <v>56.21137633839751</v>
       </c>
       <c r="P45" t="n">
-        <v>60.98136935834791</v>
+        <v>60.98136935834789</v>
       </c>
       <c r="Q45" t="n">
-        <v>81.73346793160962</v>
+        <v>81.7334679316096</v>
       </c>
       <c r="R45" t="n">
         <v>102.7991627330203</v>
@@ -30858,7 +30858,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
-        <v>226.4098618621825</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
         <v>150.4889240962943</v>
@@ -30876,22 +30876,22 @@
         <v>136.4403570291208</v>
       </c>
       <c r="J46" t="n">
-        <v>88.32412184825279</v>
+        <v>88.32412184825277</v>
       </c>
       <c r="K46" t="n">
         <v>80.40428934589781</v>
       </c>
       <c r="L46" t="n">
-        <v>78.34590850546641</v>
+        <v>78.3459085054664</v>
       </c>
       <c r="M46" t="n">
         <v>79.93067970396675</v>
       </c>
       <c r="N46" t="n">
-        <v>71.58137972518446</v>
+        <v>71.58137972518445</v>
       </c>
       <c r="O46" t="n">
-        <v>82.78808566083811</v>
+        <v>157.6567732825058</v>
       </c>
       <c r="P46" t="n">
         <v>86.48380385827534</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4685581138800078</v>
+        <v>0.468558113880008</v>
       </c>
       <c r="H11" t="n">
-        <v>4.798620783773631</v>
+        <v>4.798620783773632</v>
       </c>
       <c r="I11" t="n">
         <v>18.06408668535902</v>
       </c>
       <c r="J11" t="n">
-        <v>39.76828421792334</v>
+        <v>39.76828421792336</v>
       </c>
       <c r="K11" t="n">
-        <v>59.60234917846409</v>
+        <v>59.60234917846411</v>
       </c>
       <c r="L11" t="n">
-        <v>73.94198455611939</v>
+        <v>73.94198455611942</v>
       </c>
       <c r="M11" t="n">
-        <v>82.27470491383298</v>
+        <v>82.27470491383301</v>
       </c>
       <c r="N11" t="n">
-        <v>83.60599565489456</v>
+        <v>83.60599565489458</v>
       </c>
       <c r="O11" t="n">
-        <v>78.94677091000023</v>
+        <v>78.94677091000025</v>
       </c>
       <c r="P11" t="n">
-        <v>67.37924247358752</v>
+        <v>67.37924247358754</v>
       </c>
       <c r="Q11" t="n">
-        <v>50.59900502025972</v>
+        <v>50.59900502025975</v>
       </c>
       <c r="R11" t="n">
-        <v>29.43306362101507</v>
+        <v>29.43306362101508</v>
       </c>
       <c r="S11" t="n">
         <v>10.67726802004069</v>
       </c>
       <c r="T11" t="n">
-        <v>2.051113143509735</v>
+        <v>2.051113143509736</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03748464911040061</v>
+        <v>0.03748464911040063</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2507006927236289</v>
+        <v>0.250700692723629</v>
       </c>
       <c r="H12" t="n">
-        <v>2.421240900778206</v>
+        <v>2.421240900778207</v>
       </c>
       <c r="I12" t="n">
-        <v>8.631580867896872</v>
+        <v>8.631580867896876</v>
       </c>
       <c r="J12" t="n">
-        <v>23.68571764017408</v>
+        <v>23.68571764017409</v>
       </c>
       <c r="K12" t="n">
-        <v>40.48266405265721</v>
+        <v>40.48266405265723</v>
       </c>
       <c r="L12" t="n">
-        <v>54.43393768983881</v>
+        <v>54.43393768983883</v>
       </c>
       <c r="M12" t="n">
-        <v>63.52183780107034</v>
+        <v>63.52183780107037</v>
       </c>
       <c r="N12" t="n">
-        <v>65.20307183253715</v>
+        <v>65.20307183253718</v>
       </c>
       <c r="O12" t="n">
-        <v>59.64807227271358</v>
+        <v>59.6480722727136</v>
       </c>
       <c r="P12" t="n">
-        <v>47.87283666579542</v>
+        <v>47.87283666579543</v>
       </c>
       <c r="Q12" t="n">
-        <v>32.00172351328288</v>
+        <v>32.00172351328289</v>
       </c>
       <c r="R12" t="n">
-        <v>15.5654342377004</v>
+        <v>15.56543423770041</v>
       </c>
       <c r="S12" t="n">
-        <v>4.656655410897226</v>
+        <v>4.656655410897228</v>
       </c>
       <c r="T12" t="n">
-        <v>1.010499721986907</v>
+        <v>1.010499721986908</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01649346662655454</v>
+        <v>0.01649346662655455</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>0.2101790391974053</v>
       </c>
       <c r="H13" t="n">
-        <v>1.86868273031875</v>
+        <v>1.868682730318751</v>
       </c>
       <c r="I13" t="n">
-        <v>6.320656924227426</v>
+        <v>6.320656924227428</v>
       </c>
       <c r="J13" t="n">
-        <v>14.85965807125655</v>
+        <v>14.85965807125656</v>
       </c>
       <c r="K13" t="n">
-        <v>24.41898291766217</v>
+        <v>24.41898291766218</v>
       </c>
       <c r="L13" t="n">
-        <v>31.24789097303969</v>
+        <v>31.24789097303971</v>
       </c>
       <c r="M13" t="n">
-        <v>32.94651975346235</v>
+        <v>32.94651975346236</v>
       </c>
       <c r="N13" t="n">
-        <v>32.1631251528175</v>
+        <v>32.16312515281751</v>
       </c>
       <c r="O13" t="n">
-        <v>29.70785183128417</v>
+        <v>29.70785183128418</v>
       </c>
       <c r="P13" t="n">
-        <v>25.42019943165708</v>
+        <v>25.42019943165709</v>
       </c>
       <c r="Q13" t="n">
         <v>17.59962845497546</v>
       </c>
       <c r="R13" t="n">
-        <v>9.450413889730601</v>
+        <v>9.450413889730605</v>
       </c>
       <c r="S13" t="n">
-        <v>3.662847437649325</v>
+        <v>3.662847437649326</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8980377129343677</v>
+        <v>0.8980377129343681</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01146431122894939</v>
+        <v>0.0114643112289494</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4685581138800078</v>
+        <v>0.468558113880008</v>
       </c>
       <c r="H14" t="n">
-        <v>4.798620783773631</v>
+        <v>4.798620783773632</v>
       </c>
       <c r="I14" t="n">
         <v>18.06408668535902</v>
       </c>
       <c r="J14" t="n">
-        <v>39.76828421792334</v>
+        <v>39.76828421792336</v>
       </c>
       <c r="K14" t="n">
-        <v>59.60234917846409</v>
+        <v>59.60234917846411</v>
       </c>
       <c r="L14" t="n">
-        <v>73.94198455611939</v>
+        <v>73.94198455611942</v>
       </c>
       <c r="M14" t="n">
-        <v>82.27470491383298</v>
+        <v>82.27470491383301</v>
       </c>
       <c r="N14" t="n">
-        <v>83.60599565489456</v>
+        <v>83.60599565489458</v>
       </c>
       <c r="O14" t="n">
-        <v>78.94677091000023</v>
+        <v>78.94677091000025</v>
       </c>
       <c r="P14" t="n">
-        <v>67.37924247358752</v>
+        <v>67.37924247358754</v>
       </c>
       <c r="Q14" t="n">
-        <v>50.59900502025972</v>
+        <v>50.59900502025975</v>
       </c>
       <c r="R14" t="n">
-        <v>29.43306362101507</v>
+        <v>29.43306362101508</v>
       </c>
       <c r="S14" t="n">
         <v>10.67726802004069</v>
       </c>
       <c r="T14" t="n">
-        <v>2.051113143509735</v>
+        <v>2.051113143509736</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03748464911040061</v>
+        <v>0.03748464911040063</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2507006927236289</v>
+        <v>0.250700692723629</v>
       </c>
       <c r="H15" t="n">
-        <v>2.421240900778206</v>
+        <v>2.421240900778207</v>
       </c>
       <c r="I15" t="n">
-        <v>8.631580867896872</v>
+        <v>8.631580867896876</v>
       </c>
       <c r="J15" t="n">
-        <v>23.68571764017408</v>
+        <v>23.68571764017409</v>
       </c>
       <c r="K15" t="n">
-        <v>40.48266405265721</v>
+        <v>40.48266405265723</v>
       </c>
       <c r="L15" t="n">
-        <v>54.43393768983881</v>
+        <v>54.43393768983883</v>
       </c>
       <c r="M15" t="n">
-        <v>63.52183780107034</v>
+        <v>63.52183780107037</v>
       </c>
       <c r="N15" t="n">
-        <v>65.20307183253715</v>
+        <v>65.20307183253718</v>
       </c>
       <c r="O15" t="n">
-        <v>59.64807227271358</v>
+        <v>59.6480722727136</v>
       </c>
       <c r="P15" t="n">
-        <v>47.87283666579542</v>
+        <v>47.87283666579543</v>
       </c>
       <c r="Q15" t="n">
-        <v>32.00172351328288</v>
+        <v>32.00172351328289</v>
       </c>
       <c r="R15" t="n">
-        <v>15.5654342377004</v>
+        <v>15.56543423770041</v>
       </c>
       <c r="S15" t="n">
-        <v>4.656655410897226</v>
+        <v>4.656655410897228</v>
       </c>
       <c r="T15" t="n">
-        <v>1.010499721986907</v>
+        <v>1.010499721986908</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01649346662655454</v>
+        <v>0.01649346662655455</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>0.2101790391974053</v>
       </c>
       <c r="H16" t="n">
-        <v>1.86868273031875</v>
+        <v>1.868682730318751</v>
       </c>
       <c r="I16" t="n">
-        <v>6.320656924227426</v>
+        <v>6.320656924227428</v>
       </c>
       <c r="J16" t="n">
-        <v>14.85965807125655</v>
+        <v>14.85965807125656</v>
       </c>
       <c r="K16" t="n">
-        <v>24.41898291766217</v>
+        <v>24.41898291766218</v>
       </c>
       <c r="L16" t="n">
-        <v>31.24789097303969</v>
+        <v>31.24789097303971</v>
       </c>
       <c r="M16" t="n">
-        <v>32.94651975346235</v>
+        <v>32.94651975346236</v>
       </c>
       <c r="N16" t="n">
-        <v>32.1631251528175</v>
+        <v>32.16312515281751</v>
       </c>
       <c r="O16" t="n">
-        <v>29.70785183128417</v>
+        <v>29.70785183128418</v>
       </c>
       <c r="P16" t="n">
-        <v>25.42019943165708</v>
+        <v>25.42019943165709</v>
       </c>
       <c r="Q16" t="n">
         <v>17.59962845497546</v>
       </c>
       <c r="R16" t="n">
-        <v>9.450413889730601</v>
+        <v>9.450413889730605</v>
       </c>
       <c r="S16" t="n">
-        <v>3.662847437649325</v>
+        <v>3.662847437649326</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8980377129343677</v>
+        <v>0.8980377129343681</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01146431122894939</v>
+        <v>0.0114643112289494</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4685581138800078</v>
+        <v>0.468558113880008</v>
       </c>
       <c r="H17" t="n">
-        <v>4.798620783773631</v>
+        <v>4.798620783773632</v>
       </c>
       <c r="I17" t="n">
         <v>18.06408668535902</v>
       </c>
       <c r="J17" t="n">
-        <v>39.76828421792334</v>
+        <v>39.76828421792336</v>
       </c>
       <c r="K17" t="n">
-        <v>59.60234917846409</v>
+        <v>59.60234917846411</v>
       </c>
       <c r="L17" t="n">
-        <v>73.94198455611939</v>
+        <v>73.94198455611942</v>
       </c>
       <c r="M17" t="n">
-        <v>82.27470491383298</v>
+        <v>82.27470491383301</v>
       </c>
       <c r="N17" t="n">
-        <v>83.60599565489456</v>
+        <v>83.60599565489458</v>
       </c>
       <c r="O17" t="n">
-        <v>78.94677091000023</v>
+        <v>78.94677091000025</v>
       </c>
       <c r="P17" t="n">
-        <v>67.37924247358752</v>
+        <v>67.37924247358754</v>
       </c>
       <c r="Q17" t="n">
-        <v>50.59900502025972</v>
+        <v>50.59900502025975</v>
       </c>
       <c r="R17" t="n">
-        <v>29.43306362101507</v>
+        <v>29.43306362101508</v>
       </c>
       <c r="S17" t="n">
         <v>10.67726802004069</v>
       </c>
       <c r="T17" t="n">
-        <v>2.051113143509735</v>
+        <v>2.051113143509736</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03748464911040061</v>
+        <v>0.03748464911040063</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2507006927236289</v>
+        <v>0.250700692723629</v>
       </c>
       <c r="H18" t="n">
-        <v>2.421240900778206</v>
+        <v>2.421240900778207</v>
       </c>
       <c r="I18" t="n">
-        <v>8.631580867896872</v>
+        <v>8.631580867896876</v>
       </c>
       <c r="J18" t="n">
-        <v>23.68571764017408</v>
+        <v>23.68571764017409</v>
       </c>
       <c r="K18" t="n">
-        <v>40.48266405265721</v>
+        <v>40.48266405265723</v>
       </c>
       <c r="L18" t="n">
-        <v>54.43393768983881</v>
+        <v>54.43393768983883</v>
       </c>
       <c r="M18" t="n">
-        <v>63.52183780107034</v>
+        <v>63.52183780107037</v>
       </c>
       <c r="N18" t="n">
-        <v>65.20307183253715</v>
+        <v>65.20307183253718</v>
       </c>
       <c r="O18" t="n">
-        <v>59.64807227271358</v>
+        <v>59.6480722727136</v>
       </c>
       <c r="P18" t="n">
-        <v>47.87283666579542</v>
+        <v>47.87283666579543</v>
       </c>
       <c r="Q18" t="n">
-        <v>32.00172351328288</v>
+        <v>32.00172351328289</v>
       </c>
       <c r="R18" t="n">
-        <v>15.5654342377004</v>
+        <v>15.56543423770041</v>
       </c>
       <c r="S18" t="n">
-        <v>4.656655410897226</v>
+        <v>4.656655410897228</v>
       </c>
       <c r="T18" t="n">
-        <v>1.010499721986907</v>
+        <v>1.010499721986908</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01649346662655454</v>
+        <v>0.01649346662655455</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>0.2101790391974053</v>
       </c>
       <c r="H19" t="n">
-        <v>1.86868273031875</v>
+        <v>1.868682730318751</v>
       </c>
       <c r="I19" t="n">
-        <v>6.320656924227426</v>
+        <v>6.320656924227428</v>
       </c>
       <c r="J19" t="n">
-        <v>14.85965807125655</v>
+        <v>14.85965807125656</v>
       </c>
       <c r="K19" t="n">
-        <v>24.41898291766217</v>
+        <v>24.41898291766218</v>
       </c>
       <c r="L19" t="n">
-        <v>31.24789097303969</v>
+        <v>31.24789097303971</v>
       </c>
       <c r="M19" t="n">
-        <v>32.94651975346235</v>
+        <v>32.94651975346236</v>
       </c>
       <c r="N19" t="n">
-        <v>32.1631251528175</v>
+        <v>32.16312515281751</v>
       </c>
       <c r="O19" t="n">
-        <v>29.70785183128417</v>
+        <v>29.70785183128418</v>
       </c>
       <c r="P19" t="n">
-        <v>25.42019943165708</v>
+        <v>25.42019943165709</v>
       </c>
       <c r="Q19" t="n">
         <v>17.59962845497546</v>
       </c>
       <c r="R19" t="n">
-        <v>9.450413889730601</v>
+        <v>9.450413889730605</v>
       </c>
       <c r="S19" t="n">
-        <v>3.662847437649325</v>
+        <v>3.662847437649326</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8980377129343677</v>
+        <v>0.8980377129343681</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01146431122894939</v>
+        <v>0.0114643112289494</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4685581138800078</v>
+        <v>0.468558113880008</v>
       </c>
       <c r="H20" t="n">
-        <v>4.798620783773631</v>
+        <v>4.798620783773632</v>
       </c>
       <c r="I20" t="n">
         <v>18.06408668535902</v>
       </c>
       <c r="J20" t="n">
-        <v>39.76828421792334</v>
+        <v>39.76828421792336</v>
       </c>
       <c r="K20" t="n">
-        <v>59.60234917846409</v>
+        <v>59.60234917846411</v>
       </c>
       <c r="L20" t="n">
-        <v>73.94198455611939</v>
+        <v>73.94198455611942</v>
       </c>
       <c r="M20" t="n">
-        <v>82.27470491383298</v>
+        <v>82.27470491383301</v>
       </c>
       <c r="N20" t="n">
-        <v>83.60599565489456</v>
+        <v>83.60599565489458</v>
       </c>
       <c r="O20" t="n">
-        <v>78.94677091000023</v>
+        <v>78.94677091000025</v>
       </c>
       <c r="P20" t="n">
-        <v>67.37924247358752</v>
+        <v>67.37924247358754</v>
       </c>
       <c r="Q20" t="n">
-        <v>50.59900502025972</v>
+        <v>50.59900502025975</v>
       </c>
       <c r="R20" t="n">
-        <v>29.43306362101507</v>
+        <v>29.43306362101508</v>
       </c>
       <c r="S20" t="n">
         <v>10.67726802004069</v>
       </c>
       <c r="T20" t="n">
-        <v>2.051113143509735</v>
+        <v>2.051113143509736</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03748464911040061</v>
+        <v>0.03748464911040063</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2507006927236289</v>
+        <v>0.250700692723629</v>
       </c>
       <c r="H21" t="n">
-        <v>2.421240900778206</v>
+        <v>2.421240900778207</v>
       </c>
       <c r="I21" t="n">
-        <v>8.631580867896872</v>
+        <v>8.631580867896876</v>
       </c>
       <c r="J21" t="n">
-        <v>23.68571764017408</v>
+        <v>23.68571764017409</v>
       </c>
       <c r="K21" t="n">
-        <v>40.48266405265721</v>
+        <v>40.48266405265723</v>
       </c>
       <c r="L21" t="n">
-        <v>54.43393768983881</v>
+        <v>54.43393768983883</v>
       </c>
       <c r="M21" t="n">
-        <v>63.52183780107034</v>
+        <v>63.52183780107037</v>
       </c>
       <c r="N21" t="n">
-        <v>65.20307183253715</v>
+        <v>65.20307183253718</v>
       </c>
       <c r="O21" t="n">
-        <v>59.64807227271358</v>
+        <v>59.6480722727136</v>
       </c>
       <c r="P21" t="n">
-        <v>47.87283666579542</v>
+        <v>47.87283666579543</v>
       </c>
       <c r="Q21" t="n">
-        <v>32.00172351328288</v>
+        <v>32.00172351328289</v>
       </c>
       <c r="R21" t="n">
-        <v>15.5654342377004</v>
+        <v>15.56543423770041</v>
       </c>
       <c r="S21" t="n">
-        <v>4.656655410897226</v>
+        <v>4.656655410897228</v>
       </c>
       <c r="T21" t="n">
-        <v>1.010499721986907</v>
+        <v>1.010499721986908</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01649346662655454</v>
+        <v>0.01649346662655455</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32622,46 @@
         <v>0.2101790391974053</v>
       </c>
       <c r="H22" t="n">
-        <v>1.86868273031875</v>
+        <v>1.868682730318751</v>
       </c>
       <c r="I22" t="n">
-        <v>6.320656924227426</v>
+        <v>6.320656924227428</v>
       </c>
       <c r="J22" t="n">
-        <v>14.85965807125655</v>
+        <v>14.85965807125656</v>
       </c>
       <c r="K22" t="n">
-        <v>24.41898291766217</v>
+        <v>24.41898291766218</v>
       </c>
       <c r="L22" t="n">
-        <v>31.24789097303969</v>
+        <v>31.24789097303971</v>
       </c>
       <c r="M22" t="n">
-        <v>32.94651975346235</v>
+        <v>32.94651975346236</v>
       </c>
       <c r="N22" t="n">
-        <v>32.1631251528175</v>
+        <v>32.16312515281751</v>
       </c>
       <c r="O22" t="n">
-        <v>29.70785183128417</v>
+        <v>29.70785183128418</v>
       </c>
       <c r="P22" t="n">
-        <v>25.42019943165708</v>
+        <v>25.42019943165709</v>
       </c>
       <c r="Q22" t="n">
         <v>17.59962845497546</v>
       </c>
       <c r="R22" t="n">
-        <v>9.450413889730601</v>
+        <v>9.450413889730605</v>
       </c>
       <c r="S22" t="n">
-        <v>3.662847437649325</v>
+        <v>3.662847437649326</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8980377129343677</v>
+        <v>0.8980377129343681</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01146431122894939</v>
+        <v>0.0114643112289494</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4685581138800078</v>
+        <v>0.468558113880008</v>
       </c>
       <c r="H23" t="n">
-        <v>4.798620783773631</v>
+        <v>4.798620783773632</v>
       </c>
       <c r="I23" t="n">
         <v>18.06408668535902</v>
       </c>
       <c r="J23" t="n">
-        <v>39.76828421792334</v>
+        <v>39.76828421792336</v>
       </c>
       <c r="K23" t="n">
-        <v>59.60234917846409</v>
+        <v>59.60234917846411</v>
       </c>
       <c r="L23" t="n">
-        <v>73.94198455611939</v>
+        <v>73.94198455611942</v>
       </c>
       <c r="M23" t="n">
-        <v>82.27470491383298</v>
+        <v>82.27470491383301</v>
       </c>
       <c r="N23" t="n">
-        <v>83.60599565489456</v>
+        <v>83.60599565489458</v>
       </c>
       <c r="O23" t="n">
-        <v>78.94677091000023</v>
+        <v>78.94677091000025</v>
       </c>
       <c r="P23" t="n">
-        <v>67.37924247358752</v>
+        <v>67.37924247358754</v>
       </c>
       <c r="Q23" t="n">
-        <v>50.59900502025972</v>
+        <v>50.59900502025975</v>
       </c>
       <c r="R23" t="n">
-        <v>29.43306362101507</v>
+        <v>29.43306362101508</v>
       </c>
       <c r="S23" t="n">
         <v>10.67726802004069</v>
       </c>
       <c r="T23" t="n">
-        <v>2.051113143509735</v>
+        <v>2.051113143509736</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03748464911040061</v>
+        <v>0.03748464911040063</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2507006927236289</v>
+        <v>0.250700692723629</v>
       </c>
       <c r="H24" t="n">
-        <v>2.421240900778206</v>
+        <v>2.421240900778207</v>
       </c>
       <c r="I24" t="n">
-        <v>8.631580867896872</v>
+        <v>8.631580867896876</v>
       </c>
       <c r="J24" t="n">
-        <v>23.68571764017408</v>
+        <v>23.68571764017409</v>
       </c>
       <c r="K24" t="n">
-        <v>40.48266405265721</v>
+        <v>40.48266405265723</v>
       </c>
       <c r="L24" t="n">
-        <v>54.43393768983881</v>
+        <v>54.43393768983883</v>
       </c>
       <c r="M24" t="n">
-        <v>63.52183780107034</v>
+        <v>63.52183780107037</v>
       </c>
       <c r="N24" t="n">
-        <v>65.20307183253715</v>
+        <v>65.20307183253718</v>
       </c>
       <c r="O24" t="n">
-        <v>59.64807227271358</v>
+        <v>59.6480722727136</v>
       </c>
       <c r="P24" t="n">
-        <v>47.87283666579542</v>
+        <v>47.87283666579543</v>
       </c>
       <c r="Q24" t="n">
-        <v>32.00172351328288</v>
+        <v>32.00172351328289</v>
       </c>
       <c r="R24" t="n">
-        <v>15.5654342377004</v>
+        <v>15.56543423770041</v>
       </c>
       <c r="S24" t="n">
-        <v>4.656655410897226</v>
+        <v>4.656655410897228</v>
       </c>
       <c r="T24" t="n">
-        <v>1.010499721986907</v>
+        <v>1.010499721986908</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01649346662655454</v>
+        <v>0.01649346662655455</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,46 +32859,46 @@
         <v>0.2101790391974053</v>
       </c>
       <c r="H25" t="n">
-        <v>1.86868273031875</v>
+        <v>1.868682730318751</v>
       </c>
       <c r="I25" t="n">
-        <v>6.320656924227426</v>
+        <v>6.320656924227428</v>
       </c>
       <c r="J25" t="n">
-        <v>14.85965807125655</v>
+        <v>14.85965807125656</v>
       </c>
       <c r="K25" t="n">
-        <v>24.41898291766217</v>
+        <v>24.41898291766218</v>
       </c>
       <c r="L25" t="n">
-        <v>31.24789097303969</v>
+        <v>31.24789097303971</v>
       </c>
       <c r="M25" t="n">
-        <v>32.94651975346235</v>
+        <v>32.94651975346236</v>
       </c>
       <c r="N25" t="n">
-        <v>32.1631251528175</v>
+        <v>32.16312515281751</v>
       </c>
       <c r="O25" t="n">
-        <v>29.70785183128417</v>
+        <v>29.70785183128418</v>
       </c>
       <c r="P25" t="n">
-        <v>25.42019943165708</v>
+        <v>25.42019943165709</v>
       </c>
       <c r="Q25" t="n">
         <v>17.59962845497546</v>
       </c>
       <c r="R25" t="n">
-        <v>9.450413889730601</v>
+        <v>9.450413889730605</v>
       </c>
       <c r="S25" t="n">
-        <v>3.662847437649325</v>
+        <v>3.662847437649326</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8980377129343677</v>
+        <v>0.8980377129343681</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01146431122894939</v>
+        <v>0.0114643112289494</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4685581138800078</v>
+        <v>0.468558113880008</v>
       </c>
       <c r="H26" t="n">
-        <v>4.798620783773631</v>
+        <v>4.798620783773632</v>
       </c>
       <c r="I26" t="n">
         <v>18.06408668535902</v>
       </c>
       <c r="J26" t="n">
-        <v>39.76828421792334</v>
+        <v>39.76828421792336</v>
       </c>
       <c r="K26" t="n">
-        <v>59.60234917846409</v>
+        <v>59.60234917846411</v>
       </c>
       <c r="L26" t="n">
-        <v>73.94198455611939</v>
+        <v>73.94198455611942</v>
       </c>
       <c r="M26" t="n">
-        <v>82.27470491383298</v>
+        <v>82.27470491383301</v>
       </c>
       <c r="N26" t="n">
-        <v>83.60599565489456</v>
+        <v>83.60599565489458</v>
       </c>
       <c r="O26" t="n">
-        <v>78.94677091000023</v>
+        <v>78.94677091000025</v>
       </c>
       <c r="P26" t="n">
-        <v>67.37924247358752</v>
+        <v>67.37924247358754</v>
       </c>
       <c r="Q26" t="n">
-        <v>50.59900502025972</v>
+        <v>50.59900502025975</v>
       </c>
       <c r="R26" t="n">
-        <v>29.43306362101507</v>
+        <v>29.43306362101508</v>
       </c>
       <c r="S26" t="n">
         <v>10.67726802004069</v>
       </c>
       <c r="T26" t="n">
-        <v>2.051113143509735</v>
+        <v>2.051113143509736</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03748464911040061</v>
+        <v>0.03748464911040063</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2507006927236289</v>
+        <v>0.250700692723629</v>
       </c>
       <c r="H27" t="n">
-        <v>2.421240900778206</v>
+        <v>2.421240900778207</v>
       </c>
       <c r="I27" t="n">
-        <v>8.631580867896872</v>
+        <v>8.631580867896876</v>
       </c>
       <c r="J27" t="n">
-        <v>23.68571764017408</v>
+        <v>23.68571764017409</v>
       </c>
       <c r="K27" t="n">
-        <v>40.48266405265721</v>
+        <v>40.48266405265723</v>
       </c>
       <c r="L27" t="n">
-        <v>54.43393768983881</v>
+        <v>54.43393768983883</v>
       </c>
       <c r="M27" t="n">
-        <v>63.52183780107034</v>
+        <v>63.52183780107037</v>
       </c>
       <c r="N27" t="n">
-        <v>65.20307183253715</v>
+        <v>65.20307183253718</v>
       </c>
       <c r="O27" t="n">
-        <v>59.64807227271358</v>
+        <v>59.6480722727136</v>
       </c>
       <c r="P27" t="n">
-        <v>47.87283666579542</v>
+        <v>47.87283666579543</v>
       </c>
       <c r="Q27" t="n">
-        <v>32.00172351328288</v>
+        <v>32.00172351328289</v>
       </c>
       <c r="R27" t="n">
-        <v>15.5654342377004</v>
+        <v>15.56543423770041</v>
       </c>
       <c r="S27" t="n">
-        <v>4.656655410897226</v>
+        <v>4.656655410897228</v>
       </c>
       <c r="T27" t="n">
-        <v>1.010499721986907</v>
+        <v>1.010499721986908</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01649346662655454</v>
+        <v>0.01649346662655455</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,46 +33096,46 @@
         <v>0.2101790391974053</v>
       </c>
       <c r="H28" t="n">
-        <v>1.86868273031875</v>
+        <v>1.868682730318751</v>
       </c>
       <c r="I28" t="n">
-        <v>6.320656924227426</v>
+        <v>6.320656924227428</v>
       </c>
       <c r="J28" t="n">
-        <v>14.85965807125655</v>
+        <v>14.85965807125656</v>
       </c>
       <c r="K28" t="n">
-        <v>24.41898291766217</v>
+        <v>24.41898291766218</v>
       </c>
       <c r="L28" t="n">
-        <v>31.24789097303969</v>
+        <v>31.24789097303971</v>
       </c>
       <c r="M28" t="n">
-        <v>32.94651975346235</v>
+        <v>32.94651975346236</v>
       </c>
       <c r="N28" t="n">
-        <v>32.1631251528175</v>
+        <v>32.16312515281751</v>
       </c>
       <c r="O28" t="n">
-        <v>29.70785183128417</v>
+        <v>29.70785183128418</v>
       </c>
       <c r="P28" t="n">
-        <v>25.42019943165708</v>
+        <v>25.42019943165709</v>
       </c>
       <c r="Q28" t="n">
         <v>17.59962845497546</v>
       </c>
       <c r="R28" t="n">
-        <v>9.450413889730601</v>
+        <v>9.450413889730605</v>
       </c>
       <c r="S28" t="n">
-        <v>3.662847437649325</v>
+        <v>3.662847437649326</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8980377129343677</v>
+        <v>0.8980377129343681</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01146431122894939</v>
+        <v>0.0114643112289494</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4685581138800078</v>
+        <v>0.468558113880008</v>
       </c>
       <c r="H29" t="n">
-        <v>4.798620783773631</v>
+        <v>4.798620783773632</v>
       </c>
       <c r="I29" t="n">
         <v>18.06408668535902</v>
       </c>
       <c r="J29" t="n">
-        <v>39.76828421792334</v>
+        <v>39.76828421792336</v>
       </c>
       <c r="K29" t="n">
-        <v>59.60234917846409</v>
+        <v>59.60234917846411</v>
       </c>
       <c r="L29" t="n">
-        <v>73.94198455611939</v>
+        <v>73.94198455611942</v>
       </c>
       <c r="M29" t="n">
-        <v>82.27470491383298</v>
+        <v>82.27470491383301</v>
       </c>
       <c r="N29" t="n">
-        <v>83.60599565489456</v>
+        <v>83.60599565489458</v>
       </c>
       <c r="O29" t="n">
-        <v>78.94677091000023</v>
+        <v>78.94677091000025</v>
       </c>
       <c r="P29" t="n">
-        <v>67.37924247358752</v>
+        <v>67.37924247358754</v>
       </c>
       <c r="Q29" t="n">
-        <v>50.59900502025972</v>
+        <v>50.59900502025975</v>
       </c>
       <c r="R29" t="n">
-        <v>29.43306362101507</v>
+        <v>29.43306362101508</v>
       </c>
       <c r="S29" t="n">
         <v>10.67726802004069</v>
       </c>
       <c r="T29" t="n">
-        <v>2.051113143509735</v>
+        <v>2.051113143509736</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03748464911040061</v>
+        <v>0.03748464911040063</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2507006927236289</v>
+        <v>0.250700692723629</v>
       </c>
       <c r="H30" t="n">
-        <v>2.421240900778206</v>
+        <v>2.421240900778207</v>
       </c>
       <c r="I30" t="n">
-        <v>8.631580867896872</v>
+        <v>8.631580867896876</v>
       </c>
       <c r="J30" t="n">
-        <v>23.68571764017408</v>
+        <v>23.68571764017409</v>
       </c>
       <c r="K30" t="n">
-        <v>40.48266405265721</v>
+        <v>40.48266405265723</v>
       </c>
       <c r="L30" t="n">
-        <v>54.43393768983881</v>
+        <v>54.43393768983883</v>
       </c>
       <c r="M30" t="n">
-        <v>63.52183780107034</v>
+        <v>63.52183780107037</v>
       </c>
       <c r="N30" t="n">
-        <v>65.20307183253715</v>
+        <v>65.20307183253718</v>
       </c>
       <c r="O30" t="n">
-        <v>59.64807227271358</v>
+        <v>59.6480722727136</v>
       </c>
       <c r="P30" t="n">
-        <v>47.87283666579542</v>
+        <v>47.87283666579543</v>
       </c>
       <c r="Q30" t="n">
-        <v>32.00172351328288</v>
+        <v>32.00172351328289</v>
       </c>
       <c r="R30" t="n">
-        <v>15.5654342377004</v>
+        <v>15.56543423770041</v>
       </c>
       <c r="S30" t="n">
-        <v>4.656655410897226</v>
+        <v>4.656655410897228</v>
       </c>
       <c r="T30" t="n">
-        <v>1.010499721986907</v>
+        <v>1.010499721986908</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01649346662655454</v>
+        <v>0.01649346662655455</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,46 +33333,46 @@
         <v>0.2101790391974053</v>
       </c>
       <c r="H31" t="n">
-        <v>1.86868273031875</v>
+        <v>1.868682730318751</v>
       </c>
       <c r="I31" t="n">
-        <v>6.320656924227426</v>
+        <v>6.320656924227428</v>
       </c>
       <c r="J31" t="n">
-        <v>14.85965807125655</v>
+        <v>14.85965807125656</v>
       </c>
       <c r="K31" t="n">
-        <v>24.41898291766217</v>
+        <v>24.41898291766218</v>
       </c>
       <c r="L31" t="n">
-        <v>31.24789097303969</v>
+        <v>31.24789097303971</v>
       </c>
       <c r="M31" t="n">
-        <v>32.94651975346235</v>
+        <v>32.94651975346236</v>
       </c>
       <c r="N31" t="n">
-        <v>32.1631251528175</v>
+        <v>32.16312515281751</v>
       </c>
       <c r="O31" t="n">
-        <v>29.70785183128417</v>
+        <v>29.70785183128418</v>
       </c>
       <c r="P31" t="n">
-        <v>25.42019943165708</v>
+        <v>25.42019943165709</v>
       </c>
       <c r="Q31" t="n">
         <v>17.59962845497546</v>
       </c>
       <c r="R31" t="n">
-        <v>9.450413889730601</v>
+        <v>9.450413889730605</v>
       </c>
       <c r="S31" t="n">
-        <v>3.662847437649325</v>
+        <v>3.662847437649326</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8980377129343677</v>
+        <v>0.8980377129343681</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01146431122894939</v>
+        <v>0.0114643112289494</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4685581138800078</v>
+        <v>0.468558113880008</v>
       </c>
       <c r="H32" t="n">
-        <v>4.798620783773631</v>
+        <v>4.798620783773632</v>
       </c>
       <c r="I32" t="n">
         <v>18.06408668535902</v>
       </c>
       <c r="J32" t="n">
-        <v>39.76828421792334</v>
+        <v>39.76828421792336</v>
       </c>
       <c r="K32" t="n">
-        <v>59.60234917846409</v>
+        <v>59.60234917846411</v>
       </c>
       <c r="L32" t="n">
-        <v>73.94198455611939</v>
+        <v>73.94198455611942</v>
       </c>
       <c r="M32" t="n">
-        <v>82.27470491383298</v>
+        <v>82.27470491383301</v>
       </c>
       <c r="N32" t="n">
-        <v>83.60599565489456</v>
+        <v>83.60599565489458</v>
       </c>
       <c r="O32" t="n">
-        <v>78.94677091000023</v>
+        <v>78.94677091000025</v>
       </c>
       <c r="P32" t="n">
-        <v>67.37924247358752</v>
+        <v>67.37924247358754</v>
       </c>
       <c r="Q32" t="n">
-        <v>50.59900502025972</v>
+        <v>50.59900502025975</v>
       </c>
       <c r="R32" t="n">
-        <v>29.43306362101507</v>
+        <v>29.43306362101508</v>
       </c>
       <c r="S32" t="n">
         <v>10.67726802004069</v>
       </c>
       <c r="T32" t="n">
-        <v>2.051113143509735</v>
+        <v>2.051113143509736</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03748464911040061</v>
+        <v>0.03748464911040063</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2507006927236289</v>
+        <v>0.250700692723629</v>
       </c>
       <c r="H33" t="n">
-        <v>2.421240900778206</v>
+        <v>2.421240900778207</v>
       </c>
       <c r="I33" t="n">
-        <v>8.631580867896872</v>
+        <v>8.631580867896876</v>
       </c>
       <c r="J33" t="n">
-        <v>23.68571764017408</v>
+        <v>23.68571764017409</v>
       </c>
       <c r="K33" t="n">
-        <v>40.48266405265721</v>
+        <v>40.48266405265723</v>
       </c>
       <c r="L33" t="n">
-        <v>54.43393768983881</v>
+        <v>54.43393768983883</v>
       </c>
       <c r="M33" t="n">
-        <v>63.52183780107034</v>
+        <v>63.52183780107037</v>
       </c>
       <c r="N33" t="n">
-        <v>65.20307183253715</v>
+        <v>65.20307183253718</v>
       </c>
       <c r="O33" t="n">
-        <v>59.64807227271358</v>
+        <v>59.6480722727136</v>
       </c>
       <c r="P33" t="n">
-        <v>47.87283666579542</v>
+        <v>47.87283666579543</v>
       </c>
       <c r="Q33" t="n">
-        <v>32.00172351328288</v>
+        <v>32.00172351328289</v>
       </c>
       <c r="R33" t="n">
-        <v>15.5654342377004</v>
+        <v>15.56543423770041</v>
       </c>
       <c r="S33" t="n">
-        <v>4.656655410897226</v>
+        <v>4.656655410897228</v>
       </c>
       <c r="T33" t="n">
-        <v>1.010499721986907</v>
+        <v>1.010499721986908</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01649346662655454</v>
+        <v>0.01649346662655455</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,46 +33570,46 @@
         <v>0.2101790391974053</v>
       </c>
       <c r="H34" t="n">
-        <v>1.86868273031875</v>
+        <v>1.868682730318751</v>
       </c>
       <c r="I34" t="n">
-        <v>6.320656924227426</v>
+        <v>6.320656924227428</v>
       </c>
       <c r="J34" t="n">
-        <v>14.85965807125655</v>
+        <v>14.85965807125656</v>
       </c>
       <c r="K34" t="n">
-        <v>24.41898291766217</v>
+        <v>24.41898291766218</v>
       </c>
       <c r="L34" t="n">
-        <v>31.24789097303969</v>
+        <v>31.24789097303971</v>
       </c>
       <c r="M34" t="n">
-        <v>32.94651975346235</v>
+        <v>32.94651975346236</v>
       </c>
       <c r="N34" t="n">
-        <v>32.1631251528175</v>
+        <v>32.16312515281751</v>
       </c>
       <c r="O34" t="n">
-        <v>29.70785183128417</v>
+        <v>29.70785183128418</v>
       </c>
       <c r="P34" t="n">
-        <v>25.42019943165708</v>
+        <v>25.42019943165709</v>
       </c>
       <c r="Q34" t="n">
         <v>17.59962845497546</v>
       </c>
       <c r="R34" t="n">
-        <v>9.450413889730601</v>
+        <v>9.450413889730605</v>
       </c>
       <c r="S34" t="n">
-        <v>3.662847437649325</v>
+        <v>3.662847437649326</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8980377129343677</v>
+        <v>0.8980377129343681</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01146431122894939</v>
+        <v>0.0114643112289494</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4685581138800078</v>
+        <v>0.468558113880008</v>
       </c>
       <c r="H35" t="n">
-        <v>4.798620783773631</v>
+        <v>4.798620783773632</v>
       </c>
       <c r="I35" t="n">
         <v>18.06408668535902</v>
       </c>
       <c r="J35" t="n">
-        <v>39.76828421792334</v>
+        <v>39.76828421792336</v>
       </c>
       <c r="K35" t="n">
-        <v>59.60234917846409</v>
+        <v>59.60234917846411</v>
       </c>
       <c r="L35" t="n">
-        <v>73.94198455611939</v>
+        <v>73.94198455611942</v>
       </c>
       <c r="M35" t="n">
-        <v>82.27470491383298</v>
+        <v>82.27470491383301</v>
       </c>
       <c r="N35" t="n">
-        <v>83.60599565489456</v>
+        <v>83.60599565489458</v>
       </c>
       <c r="O35" t="n">
-        <v>78.94677091000023</v>
+        <v>78.94677091000025</v>
       </c>
       <c r="P35" t="n">
-        <v>67.37924247358752</v>
+        <v>67.37924247358754</v>
       </c>
       <c r="Q35" t="n">
-        <v>50.59900502025972</v>
+        <v>50.59900502025975</v>
       </c>
       <c r="R35" t="n">
-        <v>29.43306362101507</v>
+        <v>29.43306362101508</v>
       </c>
       <c r="S35" t="n">
         <v>10.67726802004069</v>
       </c>
       <c r="T35" t="n">
-        <v>2.051113143509735</v>
+        <v>2.051113143509736</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03748464911040061</v>
+        <v>0.03748464911040063</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2507006927236289</v>
+        <v>0.250700692723629</v>
       </c>
       <c r="H36" t="n">
-        <v>2.421240900778206</v>
+        <v>2.421240900778207</v>
       </c>
       <c r="I36" t="n">
-        <v>8.631580867896872</v>
+        <v>8.631580867896876</v>
       </c>
       <c r="J36" t="n">
-        <v>23.68571764017408</v>
+        <v>23.68571764017409</v>
       </c>
       <c r="K36" t="n">
-        <v>40.48266405265721</v>
+        <v>40.48266405265723</v>
       </c>
       <c r="L36" t="n">
-        <v>54.43393768983881</v>
+        <v>54.43393768983883</v>
       </c>
       <c r="M36" t="n">
-        <v>63.52183780107034</v>
+        <v>63.52183780107037</v>
       </c>
       <c r="N36" t="n">
-        <v>65.20307183253715</v>
+        <v>65.20307183253718</v>
       </c>
       <c r="O36" t="n">
-        <v>59.64807227271358</v>
+        <v>59.6480722727136</v>
       </c>
       <c r="P36" t="n">
-        <v>47.87283666579542</v>
+        <v>47.87283666579543</v>
       </c>
       <c r="Q36" t="n">
-        <v>32.00172351328288</v>
+        <v>32.00172351328289</v>
       </c>
       <c r="R36" t="n">
-        <v>15.5654342377004</v>
+        <v>15.56543423770041</v>
       </c>
       <c r="S36" t="n">
-        <v>4.656655410897226</v>
+        <v>4.656655410897228</v>
       </c>
       <c r="T36" t="n">
-        <v>1.010499721986907</v>
+        <v>1.010499721986908</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01649346662655454</v>
+        <v>0.01649346662655455</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,46 +33807,46 @@
         <v>0.2101790391974053</v>
       </c>
       <c r="H37" t="n">
-        <v>1.86868273031875</v>
+        <v>1.868682730318751</v>
       </c>
       <c r="I37" t="n">
-        <v>6.320656924227426</v>
+        <v>6.320656924227428</v>
       </c>
       <c r="J37" t="n">
-        <v>14.85965807125655</v>
+        <v>14.85965807125656</v>
       </c>
       <c r="K37" t="n">
-        <v>24.41898291766217</v>
+        <v>24.41898291766218</v>
       </c>
       <c r="L37" t="n">
-        <v>31.24789097303969</v>
+        <v>31.24789097303971</v>
       </c>
       <c r="M37" t="n">
-        <v>32.94651975346235</v>
+        <v>32.94651975346236</v>
       </c>
       <c r="N37" t="n">
-        <v>32.1631251528175</v>
+        <v>32.16312515281751</v>
       </c>
       <c r="O37" t="n">
-        <v>29.70785183128417</v>
+        <v>29.70785183128418</v>
       </c>
       <c r="P37" t="n">
-        <v>25.42019943165708</v>
+        <v>25.42019943165709</v>
       </c>
       <c r="Q37" t="n">
         <v>17.59962845497546</v>
       </c>
       <c r="R37" t="n">
-        <v>9.450413889730601</v>
+        <v>9.450413889730605</v>
       </c>
       <c r="S37" t="n">
-        <v>3.662847437649325</v>
+        <v>3.662847437649326</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8980377129343677</v>
+        <v>0.8980377129343681</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01146431122894939</v>
+        <v>0.0114643112289494</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4685581138800078</v>
+        <v>0.4685581138800076</v>
       </c>
       <c r="H38" t="n">
-        <v>4.798620783773631</v>
+        <v>4.798620783773629</v>
       </c>
       <c r="I38" t="n">
-        <v>18.06408668535902</v>
+        <v>18.06408668535901</v>
       </c>
       <c r="J38" t="n">
-        <v>39.76828421792334</v>
+        <v>39.76828421792332</v>
       </c>
       <c r="K38" t="n">
-        <v>59.60234917846409</v>
+        <v>59.60234917846406</v>
       </c>
       <c r="L38" t="n">
-        <v>73.94198455611939</v>
+        <v>73.94198455611935</v>
       </c>
       <c r="M38" t="n">
-        <v>82.27470491383298</v>
+        <v>82.27470491383293</v>
       </c>
       <c r="N38" t="n">
-        <v>83.60599565489456</v>
+        <v>83.60599565489451</v>
       </c>
       <c r="O38" t="n">
-        <v>78.94677091000023</v>
+        <v>78.94677091000018</v>
       </c>
       <c r="P38" t="n">
-        <v>67.37924247358752</v>
+        <v>67.37924247358748</v>
       </c>
       <c r="Q38" t="n">
-        <v>50.59900502025972</v>
+        <v>50.5990050202597</v>
       </c>
       <c r="R38" t="n">
-        <v>29.43306362101507</v>
+        <v>29.43306362101505</v>
       </c>
       <c r="S38" t="n">
-        <v>10.67726802004069</v>
+        <v>10.67726802004068</v>
       </c>
       <c r="T38" t="n">
-        <v>2.051113143509735</v>
+        <v>2.051113143509734</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03748464911040061</v>
+        <v>0.03748464911040059</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2507006927236289</v>
+        <v>0.2507006927236288</v>
       </c>
       <c r="H39" t="n">
-        <v>2.421240900778206</v>
+        <v>2.421240900778205</v>
       </c>
       <c r="I39" t="n">
-        <v>8.631580867896872</v>
+        <v>8.631580867896869</v>
       </c>
       <c r="J39" t="n">
-        <v>23.68571764017408</v>
+        <v>23.68571764017407</v>
       </c>
       <c r="K39" t="n">
-        <v>40.48266405265721</v>
+        <v>40.48266405265719</v>
       </c>
       <c r="L39" t="n">
-        <v>54.43393768983881</v>
+        <v>54.43393768983879</v>
       </c>
       <c r="M39" t="n">
-        <v>63.52183780107034</v>
+        <v>63.52183780107031</v>
       </c>
       <c r="N39" t="n">
-        <v>65.20307183253715</v>
+        <v>65.20307183253712</v>
       </c>
       <c r="O39" t="n">
-        <v>59.64807227271358</v>
+        <v>59.64807227271355</v>
       </c>
       <c r="P39" t="n">
-        <v>47.87283666579542</v>
+        <v>47.8728366657954</v>
       </c>
       <c r="Q39" t="n">
-        <v>32.00172351328288</v>
+        <v>32.00172351328286</v>
       </c>
       <c r="R39" t="n">
-        <v>15.5654342377004</v>
+        <v>15.56543423770039</v>
       </c>
       <c r="S39" t="n">
-        <v>4.656655410897226</v>
+        <v>4.656655410897224</v>
       </c>
       <c r="T39" t="n">
         <v>1.010499721986907</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01649346662655454</v>
+        <v>0.01649346662655453</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,46 +34041,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2101790391974053</v>
+        <v>0.2101790391974052</v>
       </c>
       <c r="H40" t="n">
-        <v>1.86868273031875</v>
+        <v>1.868682730318749</v>
       </c>
       <c r="I40" t="n">
-        <v>6.320656924227426</v>
+        <v>6.320656924227422</v>
       </c>
       <c r="J40" t="n">
-        <v>14.85965807125655</v>
+        <v>14.85965807125654</v>
       </c>
       <c r="K40" t="n">
-        <v>24.41898291766217</v>
+        <v>24.41898291766216</v>
       </c>
       <c r="L40" t="n">
-        <v>31.24789097303969</v>
+        <v>31.24789097303968</v>
       </c>
       <c r="M40" t="n">
-        <v>32.94651975346235</v>
+        <v>32.94651975346233</v>
       </c>
       <c r="N40" t="n">
-        <v>32.1631251528175</v>
+        <v>32.16312515281749</v>
       </c>
       <c r="O40" t="n">
-        <v>29.70785183128417</v>
+        <v>29.70785183128415</v>
       </c>
       <c r="P40" t="n">
-        <v>25.42019943165708</v>
+        <v>25.42019943165706</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.59962845497546</v>
+        <v>17.59962845497544</v>
       </c>
       <c r="R40" t="n">
-        <v>9.450413889730601</v>
+        <v>9.450413889730596</v>
       </c>
       <c r="S40" t="n">
-        <v>3.662847437649325</v>
+        <v>3.662847437649323</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8980377129343677</v>
+        <v>0.8980377129343673</v>
       </c>
       <c r="U40" t="n">
         <v>0.01146431122894939</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4685581138800078</v>
+        <v>0.468558113880008</v>
       </c>
       <c r="H41" t="n">
-        <v>4.798620783773631</v>
+        <v>4.798620783773632</v>
       </c>
       <c r="I41" t="n">
         <v>18.06408668535902</v>
       </c>
       <c r="J41" t="n">
-        <v>39.76828421792334</v>
+        <v>39.76828421792336</v>
       </c>
       <c r="K41" t="n">
-        <v>59.60234917846409</v>
+        <v>59.60234917846411</v>
       </c>
       <c r="L41" t="n">
-        <v>73.94198455611939</v>
+        <v>73.94198455611942</v>
       </c>
       <c r="M41" t="n">
-        <v>82.27470491383298</v>
+        <v>82.27470491383301</v>
       </c>
       <c r="N41" t="n">
-        <v>83.60599565489456</v>
+        <v>83.60599565489458</v>
       </c>
       <c r="O41" t="n">
-        <v>78.94677091000023</v>
+        <v>78.94677091000025</v>
       </c>
       <c r="P41" t="n">
-        <v>67.37924247358752</v>
+        <v>67.37924247358754</v>
       </c>
       <c r="Q41" t="n">
-        <v>50.59900502025972</v>
+        <v>50.59900502025975</v>
       </c>
       <c r="R41" t="n">
-        <v>29.43306362101507</v>
+        <v>29.43306362101508</v>
       </c>
       <c r="S41" t="n">
         <v>10.67726802004069</v>
       </c>
       <c r="T41" t="n">
-        <v>2.051113143509735</v>
+        <v>2.051113143509736</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03748464911040061</v>
+        <v>0.03748464911040063</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2507006927236289</v>
+        <v>0.250700692723629</v>
       </c>
       <c r="H42" t="n">
-        <v>2.421240900778206</v>
+        <v>2.421240900778207</v>
       </c>
       <c r="I42" t="n">
-        <v>8.631580867896872</v>
+        <v>8.631580867896876</v>
       </c>
       <c r="J42" t="n">
-        <v>23.68571764017408</v>
+        <v>23.68571764017409</v>
       </c>
       <c r="K42" t="n">
-        <v>40.48266405265721</v>
+        <v>40.48266405265723</v>
       </c>
       <c r="L42" t="n">
-        <v>54.43393768983881</v>
+        <v>54.43393768983883</v>
       </c>
       <c r="M42" t="n">
-        <v>63.52183780107034</v>
+        <v>63.52183780107037</v>
       </c>
       <c r="N42" t="n">
-        <v>65.20307183253715</v>
+        <v>65.20307183253718</v>
       </c>
       <c r="O42" t="n">
-        <v>59.64807227271358</v>
+        <v>59.6480722727136</v>
       </c>
       <c r="P42" t="n">
-        <v>47.87283666579542</v>
+        <v>47.87283666579543</v>
       </c>
       <c r="Q42" t="n">
-        <v>32.00172351328288</v>
+        <v>32.00172351328289</v>
       </c>
       <c r="R42" t="n">
-        <v>15.5654342377004</v>
+        <v>15.56543423770041</v>
       </c>
       <c r="S42" t="n">
-        <v>4.656655410897226</v>
+        <v>4.656655410897228</v>
       </c>
       <c r="T42" t="n">
-        <v>1.010499721986907</v>
+        <v>1.010499721986908</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01649346662655454</v>
+        <v>0.01649346662655455</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,46 +34281,46 @@
         <v>0.2101790391974053</v>
       </c>
       <c r="H43" t="n">
-        <v>1.86868273031875</v>
+        <v>1.868682730318751</v>
       </c>
       <c r="I43" t="n">
-        <v>6.320656924227426</v>
+        <v>6.320656924227428</v>
       </c>
       <c r="J43" t="n">
-        <v>14.85965807125655</v>
+        <v>14.85965807125656</v>
       </c>
       <c r="K43" t="n">
-        <v>24.41898291766217</v>
+        <v>24.41898291766218</v>
       </c>
       <c r="L43" t="n">
-        <v>31.24789097303969</v>
+        <v>31.24789097303971</v>
       </c>
       <c r="M43" t="n">
-        <v>32.94651975346235</v>
+        <v>32.94651975346236</v>
       </c>
       <c r="N43" t="n">
-        <v>32.1631251528175</v>
+        <v>32.16312515281751</v>
       </c>
       <c r="O43" t="n">
-        <v>29.70785183128417</v>
+        <v>29.70785183128418</v>
       </c>
       <c r="P43" t="n">
-        <v>25.42019943165708</v>
+        <v>25.42019943165709</v>
       </c>
       <c r="Q43" t="n">
         <v>17.59962845497546</v>
       </c>
       <c r="R43" t="n">
-        <v>9.450413889730601</v>
+        <v>9.450413889730605</v>
       </c>
       <c r="S43" t="n">
-        <v>3.662847437649325</v>
+        <v>3.662847437649326</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8980377129343677</v>
+        <v>0.8980377129343681</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01146431122894939</v>
+        <v>0.0114643112289494</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4685581138800078</v>
+        <v>0.468558113880008</v>
       </c>
       <c r="H44" t="n">
-        <v>4.798620783773631</v>
+        <v>4.798620783773632</v>
       </c>
       <c r="I44" t="n">
         <v>18.06408668535902</v>
       </c>
       <c r="J44" t="n">
-        <v>39.76828421792334</v>
+        <v>39.76828421792336</v>
       </c>
       <c r="K44" t="n">
-        <v>59.60234917846409</v>
+        <v>59.60234917846411</v>
       </c>
       <c r="L44" t="n">
-        <v>73.94198455611939</v>
+        <v>73.94198455611942</v>
       </c>
       <c r="M44" t="n">
-        <v>82.27470491383298</v>
+        <v>82.27470491383301</v>
       </c>
       <c r="N44" t="n">
-        <v>83.60599565489456</v>
+        <v>83.60599565489458</v>
       </c>
       <c r="O44" t="n">
-        <v>78.94677091000023</v>
+        <v>78.94677091000025</v>
       </c>
       <c r="P44" t="n">
-        <v>67.37924247358752</v>
+        <v>67.37924247358754</v>
       </c>
       <c r="Q44" t="n">
-        <v>50.59900502025972</v>
+        <v>50.59900502025975</v>
       </c>
       <c r="R44" t="n">
-        <v>29.43306362101507</v>
+        <v>29.43306362101508</v>
       </c>
       <c r="S44" t="n">
         <v>10.67726802004069</v>
       </c>
       <c r="T44" t="n">
-        <v>2.051113143509735</v>
+        <v>2.051113143509736</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03748464911040061</v>
+        <v>0.03748464911040063</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2507006927236289</v>
+        <v>0.250700692723629</v>
       </c>
       <c r="H45" t="n">
-        <v>2.421240900778206</v>
+        <v>2.421240900778207</v>
       </c>
       <c r="I45" t="n">
-        <v>8.631580867896872</v>
+        <v>8.631580867896876</v>
       </c>
       <c r="J45" t="n">
-        <v>23.68571764017408</v>
+        <v>23.68571764017409</v>
       </c>
       <c r="K45" t="n">
-        <v>40.48266405265721</v>
+        <v>40.48266405265723</v>
       </c>
       <c r="L45" t="n">
-        <v>54.43393768983881</v>
+        <v>54.43393768983883</v>
       </c>
       <c r="M45" t="n">
-        <v>63.52183780107034</v>
+        <v>63.52183780107037</v>
       </c>
       <c r="N45" t="n">
-        <v>65.20307183253715</v>
+        <v>65.20307183253718</v>
       </c>
       <c r="O45" t="n">
-        <v>59.64807227271358</v>
+        <v>59.6480722727136</v>
       </c>
       <c r="P45" t="n">
-        <v>47.87283666579542</v>
+        <v>47.87283666579543</v>
       </c>
       <c r="Q45" t="n">
-        <v>32.00172351328288</v>
+        <v>32.00172351328289</v>
       </c>
       <c r="R45" t="n">
-        <v>15.5654342377004</v>
+        <v>15.56543423770041</v>
       </c>
       <c r="S45" t="n">
-        <v>4.656655410897226</v>
+        <v>4.656655410897228</v>
       </c>
       <c r="T45" t="n">
-        <v>1.010499721986907</v>
+        <v>1.010499721986908</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01649346662655454</v>
+        <v>0.01649346662655455</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,46 +34518,46 @@
         <v>0.2101790391974053</v>
       </c>
       <c r="H46" t="n">
-        <v>1.86868273031875</v>
+        <v>1.868682730318751</v>
       </c>
       <c r="I46" t="n">
-        <v>6.320656924227426</v>
+        <v>6.320656924227428</v>
       </c>
       <c r="J46" t="n">
-        <v>14.85965807125655</v>
+        <v>14.85965807125656</v>
       </c>
       <c r="K46" t="n">
-        <v>24.41898291766217</v>
+        <v>24.41898291766218</v>
       </c>
       <c r="L46" t="n">
-        <v>31.24789097303969</v>
+        <v>31.24789097303971</v>
       </c>
       <c r="M46" t="n">
-        <v>32.94651975346235</v>
+        <v>32.94651975346236</v>
       </c>
       <c r="N46" t="n">
-        <v>32.1631251528175</v>
+        <v>32.16312515281751</v>
       </c>
       <c r="O46" t="n">
-        <v>29.70785183128417</v>
+        <v>29.70785183128418</v>
       </c>
       <c r="P46" t="n">
-        <v>25.42019943165708</v>
+        <v>25.42019943165709</v>
       </c>
       <c r="Q46" t="n">
         <v>17.59962845497546</v>
       </c>
       <c r="R46" t="n">
-        <v>9.450413889730601</v>
+        <v>9.450413889730605</v>
       </c>
       <c r="S46" t="n">
-        <v>3.662847437649325</v>
+        <v>3.662847437649326</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8980377129343677</v>
+        <v>0.8980377129343681</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01146431122894939</v>
+        <v>0.0114643112289494</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,37 +35404,37 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>67.0393035448563</v>
       </c>
       <c r="J11" t="n">
-        <v>112.7327304527801</v>
+        <v>112.7327304527799</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>39.73680072784471</v>
       </c>
       <c r="M11" t="n">
-        <v>115.1826340794632</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>112.0562177926691</v>
+        <v>112.056217792669</v>
       </c>
       <c r="P11" t="n">
-        <v>61.48113906181405</v>
+        <v>99.56667708522025</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>90.03987566005873</v>
       </c>
       <c r="R11" t="n">
-        <v>74.33405780982207</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>45.38482606688046</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>25.39117343086799</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>25.39117343086827</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35550,7 +35550,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>56.41707398622904</v>
+        <v>69.57531956649487</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -35574,10 +35574,10 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>118.4641751367744</v>
       </c>
       <c r="N13" t="n">
-        <v>131.6224207170395</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -35644,34 +35644,34 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>112.7327304527799</v>
+        <v>112.73273045278</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>102.446016055794</v>
+        <v>91.1601472784577</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>115.1826340794632</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>71.00147994269581</v>
+        <v>112.0562177926691</v>
       </c>
       <c r="P14" t="n">
-        <v>99.56667708522023</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03987566005871</v>
+        <v>90.03987566005881</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>45.38482606688032</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35705,7 +35705,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>25.39117343086809</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.39117343086827</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35787,7 +35787,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>56.41707398622976</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -35811,7 +35811,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>131.6224207170395</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -35826,7 +35826,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>56.41707398622937</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35875,7 +35875,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.222581945281378</v>
+        <v>5.222581945281323</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -35887,13 +35887,13 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>43.46373662089316</v>
+        <v>121.0817611670292</v>
       </c>
       <c r="M17" t="n">
-        <v>131.6224207170395</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="N17" t="n">
-        <v>131.6224207170395</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -35902,10 +35902,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>131.6224207170395</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35914,7 +35914,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>77.61802454613606</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -36112,43 +36112,43 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.222581945281378</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>126.3043431123106</v>
       </c>
       <c r="J20" t="n">
-        <v>131.6224207170395</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>131.6224207170395</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="N20" t="n">
-        <v>11.22898200964682</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>131.6224207170395</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="T20" t="n">
-        <v>109.8527791573824</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -36349,46 +36349,46 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.22258194528138</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>131.6224207170395</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>131.6224207170395</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>131.6224207170395</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>126.3043431123105</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>43.46373662089317</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>77.61802454613606</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36589,37 +36589,37 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>56.10332119515262</v>
       </c>
       <c r="J26" t="n">
-        <v>101.7967481030762</v>
+        <v>101.7967481030763</v>
       </c>
       <c r="K26" t="n">
-        <v>302.1683815469315</v>
+        <v>89.90760651750294</v>
       </c>
       <c r="L26" t="n">
-        <v>387.0354838951473</v>
+        <v>91.51003370609035</v>
       </c>
       <c r="M26" t="n">
-        <v>104.2466517297593</v>
+        <v>53.9803537573757</v>
       </c>
       <c r="N26" t="n">
-        <v>486.590600974543</v>
+        <v>486.5906009745427</v>
       </c>
       <c r="O26" t="n">
-        <v>101.1202354429652</v>
+        <v>486.5906009745427</v>
       </c>
       <c r="P26" t="n">
-        <v>88.63069473551649</v>
+        <v>297.8407540453585</v>
       </c>
       <c r="Q26" t="n">
-        <v>355.1133811682311</v>
+        <v>79.10389331035506</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>148.8294212949954</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>34.44884371717666</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>55.01779765020141</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36698,7 +36698,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>55.01779765020116</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -36756,28 +36756,28 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>130.7823528076192</v>
       </c>
       <c r="M28" t="n">
-        <v>129.1975816091187</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>125.5355746134639</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>122.7323596345773</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.218443780385563</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -36826,16 +36826,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>56.10332119515265</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>101.7967481030763</v>
+        <v>321.6223478267722</v>
       </c>
       <c r="K29" t="n">
-        <v>435.8193282824089</v>
+        <v>437.3689437991718</v>
       </c>
       <c r="L29" t="n">
-        <v>486.590600974543</v>
+        <v>412.2637800980025</v>
       </c>
       <c r="M29" t="n">
         <v>104.2466517297595</v>
@@ -36844,19 +36844,19 @@
         <v>106.33614279575</v>
       </c>
       <c r="O29" t="n">
-        <v>486.590600974543</v>
+        <v>101.1202354429653</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>88.63069473551658</v>
       </c>
       <c r="Q29" t="n">
-        <v>51.37186436364185</v>
+        <v>355.1133811682312</v>
       </c>
       <c r="R29" t="n">
-        <v>63.39807546011829</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>34.44884371717669</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -36902,7 +36902,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>55.01779765020107</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -36935,7 +36935,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>55.01779765020116</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -36972,16 +36972,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>58.63933721679123</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>58.17241288860492</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>42.10788920645449</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>53.21802527488539</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>95.8135169107312</v>
+        <v>200.2966871673111</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -37014,7 +37014,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1.218443780385563</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -37063,37 +37063,37 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>56.10332119515253</v>
+        <v>56.1033211951526</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>321.6223478267722</v>
       </c>
       <c r="K32" t="n">
-        <v>89.90760651750284</v>
+        <v>486.5906009745427</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>197.5502040817202</v>
       </c>
       <c r="M32" t="n">
-        <v>104.2466517297593</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>284.7519395763203</v>
+        <v>106.33614279575</v>
       </c>
       <c r="O32" t="n">
-        <v>486.590600974543</v>
+        <v>486.5906009745427</v>
       </c>
       <c r="P32" t="n">
-        <v>486.590600974543</v>
+        <v>88.63069473551656</v>
       </c>
       <c r="Q32" t="n">
-        <v>355.1133811682311</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>63.39807546011818</v>
+        <v>148.8294212949954</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>34.44884371717664</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37133,7 +37133,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>55.01779765020125</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>55.01779765020141</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37218,16 +37218,16 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>53.21802527488531</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>72.68790428396463</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>6.182769208922481</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -37236,13 +37236,13 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>127.1745367899492</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>126.3401756522474</v>
       </c>
       <c r="P34" t="n">
-        <v>122.6444574548101</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37251,7 +37251,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1.218443780385535</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -37300,10 +37300,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>97.75868019256775</v>
+        <v>97.75868019256782</v>
       </c>
       <c r="J35" t="n">
-        <v>143.4521071004914</v>
+        <v>143.4521071004915</v>
       </c>
       <c r="K35" t="n">
         <v>131.5629655149181</v>
@@ -37312,28 +37312,28 @@
         <v>133.1653927035055</v>
       </c>
       <c r="M35" t="n">
-        <v>145.9020107271744</v>
+        <v>145.9020107271747</v>
       </c>
       <c r="N35" t="n">
-        <v>147.9915017931651</v>
+        <v>147.9915017931652</v>
       </c>
       <c r="O35" t="n">
-        <v>142.7755944403804</v>
+        <v>142.7755944403805</v>
       </c>
       <c r="P35" t="n">
-        <v>130.2860537329317</v>
+        <v>130.2860537329298</v>
       </c>
       <c r="Q35" t="n">
-        <v>120.7592523077702</v>
+        <v>120.7592523077703</v>
       </c>
       <c r="R35" t="n">
-        <v>105.0534344575334</v>
+        <v>105.0534344575335</v>
       </c>
       <c r="S35" t="n">
-        <v>76.10420271459179</v>
+        <v>76.10420271459185</v>
       </c>
       <c r="T35" t="n">
-        <v>30.71937664771148</v>
+        <v>30.71937664771154</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>31.99488484386687</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>74.8686876216678</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37488,7 +37488,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>42.87380277780075</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>97.75868019256778</v>
+        <v>97.75868019256779</v>
       </c>
       <c r="J38" t="n">
         <v>143.4521071004914</v>
@@ -37567,10 +37567,10 @@
         <v>105.0534344575334</v>
       </c>
       <c r="S38" t="n">
-        <v>76.10420271459182</v>
+        <v>76.10420271459185</v>
       </c>
       <c r="T38" t="n">
-        <v>30.71937664771151</v>
+        <v>30.71937664771153</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37674,7 +37674,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>69.06380531296469</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -37683,7 +37683,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>5.804882308703024</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -37695,7 +37695,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>31.99488484386687</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37725,7 +37725,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>42.87380277780075</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37774,40 +37774,40 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>97.75868019256781</v>
+        <v>97.75868019256788</v>
       </c>
       <c r="J41" t="n">
-        <v>143.4521071004907</v>
+        <v>143.4521071004915</v>
       </c>
       <c r="K41" t="n">
-        <v>131.5629655149181</v>
+        <v>131.5629655149182</v>
       </c>
       <c r="L41" t="n">
-        <v>133.1653927035055</v>
+        <v>133.1653927035026</v>
       </c>
       <c r="M41" t="n">
-        <v>145.9020107271746</v>
+        <v>145.9020107271747</v>
       </c>
       <c r="N41" t="n">
         <v>147.9915017931652</v>
       </c>
       <c r="O41" t="n">
-        <v>142.7755944403805</v>
+        <v>142.7755944403806</v>
       </c>
       <c r="P41" t="n">
-        <v>130.2860537329317</v>
+        <v>130.2860537329318</v>
       </c>
       <c r="Q41" t="n">
-        <v>120.7592523077702</v>
+        <v>120.7592523077703</v>
       </c>
       <c r="R41" t="n">
         <v>105.0534344575335</v>
       </c>
       <c r="S41" t="n">
-        <v>76.10420271459185</v>
+        <v>76.10420271459191</v>
       </c>
       <c r="T41" t="n">
-        <v>30.71937664771154</v>
+        <v>30.7193766477116</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37929,7 +37929,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>74.86868762166763</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>54.03419325071024</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -37965,7 +37965,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>20.83449437095722</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -38011,13 +38011,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>97.75868019256781</v>
+        <v>97.75868019256779</v>
       </c>
       <c r="J44" t="n">
         <v>143.4521071004914</v>
       </c>
       <c r="K44" t="n">
-        <v>131.5629655149173</v>
+        <v>131.5629655149181</v>
       </c>
       <c r="L44" t="n">
         <v>133.1653927035055</v>
@@ -38032,19 +38032,19 @@
         <v>142.7755944403805</v>
       </c>
       <c r="P44" t="n">
-        <v>130.2860537329317</v>
+        <v>130.28605373293</v>
       </c>
       <c r="Q44" t="n">
         <v>120.7592523077702</v>
       </c>
       <c r="R44" t="n">
-        <v>105.0534344575335</v>
+        <v>105.0534344575334</v>
       </c>
       <c r="S44" t="n">
-        <v>76.10420271459185</v>
+        <v>76.10420271459182</v>
       </c>
       <c r="T44" t="n">
-        <v>30.71937664771154</v>
+        <v>30.71937664771151</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38154,7 +38154,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>74.86868762166763</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>74.8686876216677</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
